--- a/SandboxVDKD.xlsx
+++ b/SandboxVDKD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="930" firstSheet="13" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10590" windowHeight="13620" tabRatio="930" firstSheet="23" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Kontur aussen F17Chr1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,8 @@
     <sheet name="VerglAltNeu" sheetId="33" r:id="rId24"/>
     <sheet name="Vergleich mit Zugfestigkeiten " sheetId="34" r:id="rId25"/>
     <sheet name="allKOntur" sheetId="35" r:id="rId26"/>
+    <sheet name="FotomontageTAB" sheetId="36" r:id="rId27"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId27"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -2150,9 +2148,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -2254,12 +2250,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="57903744"/>
-        <c:axId val="59061376"/>
+        <c:axId val="60193408"/>
+        <c:axId val="60298368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57903744"/>
+        <c:axId val="60193408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,18 +2276,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59061376"/>
+        <c:crossAx val="60298368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59061376"/>
+        <c:axId val="60298368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,18 +2308,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57903744"/>
+        <c:crossAx val="60193408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2358,7 +2351,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -2529,12 +2521,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61495936"/>
-        <c:axId val="61522688"/>
+        <c:axId val="63678720"/>
+        <c:axId val="63693184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61495936"/>
+        <c:axId val="63678720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,17 +2547,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61522688"/>
+        <c:crossAx val="63693184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61522688"/>
+        <c:axId val="63693184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,18 +2578,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61495936"/>
+        <c:crossAx val="63678720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2635,7 +2624,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34048408325799889"/>
+          <c:x val="0.340484083257999"/>
           <c:y val="1.290322580645162E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4085,11 +4074,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61915136"/>
-        <c:axId val="61917056"/>
+        <c:axId val="63745408"/>
+        <c:axId val="63763968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61915136"/>
+        <c:axId val="63745408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,17 +4099,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61917056"/>
+        <c:crossAx val="63763968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61917056"/>
+        <c:axId val="63763968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4142,18 +4130,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61915136"/>
+        <c:crossAx val="63745408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4171,9 +4157,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -4275,12 +4259,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="62266368"/>
-        <c:axId val="62272640"/>
+        <c:axId val="64117376"/>
+        <c:axId val="64127744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62266368"/>
+        <c:axId val="64117376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4301,17 +4285,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62272640"/>
+        <c:crossAx val="64127744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62272640"/>
+        <c:axId val="64127744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4333,18 +4316,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62266368"/>
+        <c:crossAx val="64117376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4362,9 +4343,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -4466,12 +4445,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="62297600"/>
-        <c:axId val="62299520"/>
+        <c:axId val="64156800"/>
+        <c:axId val="64158720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62297600"/>
+        <c:axId val="64156800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4492,17 +4471,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62299520"/>
+        <c:crossAx val="64158720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62299520"/>
+        <c:axId val="64158720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4524,18 +4502,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62297600"/>
+        <c:crossAx val="64156800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4569,7 +4545,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -4764,12 +4739,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="62329600"/>
-        <c:axId val="62331520"/>
+        <c:axId val="64176512"/>
+        <c:axId val="64178432"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62329600"/>
+        <c:axId val="64176512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4790,17 +4765,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62331520"/>
+        <c:crossAx val="64178432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62331520"/>
+        <c:axId val="64178432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4822,18 +4796,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62329600"/>
+        <c:crossAx val="64176512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5061,12 +5033,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="62382080"/>
-        <c:axId val="62384000"/>
+        <c:axId val="64220544"/>
+        <c:axId val="64488960"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62382080"/>
+        <c:axId val="64220544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,14 +5061,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62384000"/>
+        <c:crossAx val="64488960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62384000"/>
+        <c:axId val="64488960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5121,7 +5093,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62382080"/>
+        <c:crossAx val="64220544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6678,11 +6650,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62496128"/>
-        <c:axId val="62502400"/>
+        <c:axId val="64605184"/>
+        <c:axId val="64619648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62496128"/>
+        <c:axId val="64605184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,14 +6677,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62502400"/>
+        <c:crossAx val="64619648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62502400"/>
+        <c:axId val="64619648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6737,7 +6709,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62496128"/>
+        <c:crossAx val="64605184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6761,9 +6733,7 @@
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -6865,12 +6835,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="62933632"/>
-        <c:axId val="62939904"/>
+        <c:axId val="64764160"/>
+        <c:axId val="64774528"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62933632"/>
+        <c:axId val="64764160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6891,17 +6861,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62939904"/>
+        <c:crossAx val="64774528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62939904"/>
+        <c:axId val="64774528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6923,18 +6892,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62933632"/>
+        <c:crossAx val="64764160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6952,9 +6919,7 @@
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -7056,12 +7021,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="62964864"/>
-        <c:axId val="62966784"/>
+        <c:axId val="64815872"/>
+        <c:axId val="64817792"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62964864"/>
+        <c:axId val="64815872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7082,17 +7047,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62966784"/>
+        <c:crossAx val="64817792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62966784"/>
+        <c:axId val="64817792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7114,18 +7078,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62964864"/>
+        <c:crossAx val="64815872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7165,7 +7127,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -7336,12 +7297,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63013248"/>
-        <c:axId val="63015168"/>
+        <c:axId val="64880640"/>
+        <c:axId val="64882560"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63013248"/>
+        <c:axId val="64880640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7362,17 +7323,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63015168"/>
+        <c:crossAx val="64882560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63015168"/>
+        <c:axId val="64882560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7394,18 +7354,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63013248"/>
+        <c:crossAx val="64880640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7423,9 +7381,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -7527,12 +7483,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="59106816"/>
-        <c:axId val="59108736"/>
+        <c:axId val="60343808"/>
+        <c:axId val="60345728"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59106816"/>
+        <c:axId val="60343808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7553,18 +7509,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59108736"/>
+        <c:crossAx val="60345728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59108736"/>
+        <c:axId val="60345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7586,18 +7541,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59106816"/>
+        <c:crossAx val="60343808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7801,12 +7754,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63057280"/>
-        <c:axId val="63002112"/>
+        <c:axId val="64908288"/>
+        <c:axId val="64922752"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63057280"/>
+        <c:axId val="64908288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7829,14 +7782,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63002112"/>
+        <c:crossAx val="64922752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63002112"/>
+        <c:axId val="64922752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7861,7 +7814,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63057280"/>
+        <c:crossAx val="64908288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9364,11 +9317,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63163392"/>
-        <c:axId val="63186048"/>
+        <c:axId val="66054784"/>
+        <c:axId val="66069248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63163392"/>
+        <c:axId val="66054784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9391,14 +9344,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63186048"/>
+        <c:crossAx val="66069248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63186048"/>
+        <c:axId val="66069248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9423,7 +9376,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63163392"/>
+        <c:crossAx val="66054784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9473,7 +9426,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -9760,12 +9712,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63694720"/>
-        <c:axId val="70258688"/>
+        <c:axId val="74792320"/>
+        <c:axId val="74880512"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63694720"/>
+        <c:axId val="74792320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9786,17 +9738,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70258688"/>
+        <c:crossAx val="74880512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70258688"/>
+        <c:axId val="74880512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9818,18 +9769,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63694720"/>
+        <c:crossAx val="74792320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -9863,7 +9812,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -10150,12 +10098,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70281088"/>
-        <c:axId val="70291456"/>
+        <c:axId val="74898816"/>
+        <c:axId val="75179520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70281088"/>
+        <c:axId val="74898816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10176,17 +10124,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70291456"/>
+        <c:crossAx val="75179520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70291456"/>
+        <c:axId val="75179520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10208,18 +10155,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70281088"/>
+        <c:crossAx val="74898816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -10242,7 +10187,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10380985519199609"/>
+          <c:x val="0.10380985519199606"/>
           <c:y val="2.0090599786137843E-2"/>
           <c:w val="0.69093100678290831"/>
           <c:h val="0.79508091118239854"/>
@@ -10575,11 +10520,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70399104"/>
-        <c:axId val="70401408"/>
+        <c:axId val="75233920"/>
+        <c:axId val="75244672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70399104"/>
+        <c:axId val="75233920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10604,17 +10549,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70401408"/>
+        <c:crossAx val="75244672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70401408"/>
+        <c:axId val="75244672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10643,18 +10587,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70399104"/>
+        <c:crossAx val="75233920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -10789,12 +10731,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70381568"/>
-        <c:axId val="70383488"/>
+        <c:axId val="75306496"/>
+        <c:axId val="75308416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70381568"/>
+        <c:axId val="75306496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10817,14 +10759,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70383488"/>
+        <c:crossAx val="75308416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70383488"/>
+        <c:axId val="75308416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10849,7 +10791,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70381568"/>
+        <c:crossAx val="75306496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10997,12 +10939,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70478080"/>
-        <c:axId val="70496640"/>
+        <c:axId val="75354112"/>
+        <c:axId val="75356032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70478080"/>
+        <c:axId val="75354112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11025,14 +10967,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70496640"/>
+        <c:crossAx val="75356032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70496640"/>
+        <c:axId val="75356032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11057,7 +10999,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70478080"/>
+        <c:crossAx val="75354112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11347,12 +11289,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70531328"/>
-        <c:axId val="70537600"/>
+        <c:axId val="75517952"/>
+        <c:axId val="75519872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70531328"/>
+        <c:axId val="75517952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11375,14 +11317,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70537600"/>
+        <c:crossAx val="75519872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70537600"/>
+        <c:axId val="75519872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11407,7 +11349,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70531328"/>
+        <c:crossAx val="75517952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11697,12 +11639,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70564096"/>
-        <c:axId val="70574464"/>
+        <c:axId val="75440128"/>
+        <c:axId val="75442048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70564096"/>
+        <c:axId val="75440128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11725,14 +11667,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70574464"/>
+        <c:crossAx val="75442048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70574464"/>
+        <c:axId val="75442048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11757,7 +11699,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70564096"/>
+        <c:crossAx val="75440128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11806,7 +11748,7 @@
           <c:x val="7.4558952075056473E-2"/>
           <c:y val="8.9218171358717152E-2"/>
           <c:w val="0.77271636572474856"/>
-          <c:h val="0.84410365656348973"/>
+          <c:h val="0.84410365656348996"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -13432,11 +13374,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70761856"/>
-        <c:axId val="70776320"/>
+        <c:axId val="75625600"/>
+        <c:axId val="75627520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70761856"/>
+        <c:axId val="75625600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13459,14 +13401,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70776320"/>
+        <c:crossAx val="75627520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70776320"/>
+        <c:axId val="75627520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13491,7 +13433,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70761856"/>
+        <c:crossAx val="75625600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13531,7 +13473,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -13726,12 +13667,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="59872000"/>
-        <c:axId val="59873920"/>
+        <c:axId val="62485248"/>
+        <c:axId val="62487168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59872000"/>
+        <c:axId val="62485248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13752,17 +13693,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59873920"/>
+        <c:crossAx val="62487168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59873920"/>
+        <c:axId val="62487168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13784,18 +13724,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59872000"/>
+        <c:crossAx val="62485248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -14153,8 +14091,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="62643200"/>
-        <c:axId val="77005952"/>
+        <c:axId val="76428032"/>
+        <c:axId val="76429952"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -14463,11 +14401,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="77026432"/>
-        <c:axId val="77007872"/>
+        <c:axId val="76450432"/>
+        <c:axId val="76448512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62643200"/>
+        <c:axId val="76428032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14490,12 +14428,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77005952"/>
+        <c:crossAx val="76429952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77005952"/>
+        <c:axId val="76429952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14520,12 +14458,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62643200"/>
+        <c:crossAx val="76428032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77007872"/>
+        <c:axId val="76448512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14549,19 +14487,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77026432"/>
+        <c:crossAx val="76450432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77026432"/>
+        <c:axId val="76450432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77007872"/>
+        <c:crossAx val="76448512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14918,8 +14856,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77071872"/>
-        <c:axId val="77090816"/>
+        <c:axId val="76622848"/>
+        <c:axId val="76637696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15248,11 +15186,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77094272"/>
-        <c:axId val="77092736"/>
+        <c:axId val="76649600"/>
+        <c:axId val="76639616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77071872"/>
+        <c:axId val="76622848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15275,14 +15213,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77090816"/>
+        <c:crossAx val="76637696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77090816"/>
+        <c:axId val="76637696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15306,31 +15244,31 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77071872"/>
+        <c:crossAx val="76622848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77092736"/>
+        <c:axId val="76639616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77094272"/>
+        <c:crossAx val="76649600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="77094272"/>
+        <c:axId val="76649600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77092736"/>
+        <c:crossAx val="76639616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15362,9 +15300,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12353484934259892"/>
-          <c:y val="2.0639806072499121E-2"/>
-          <c:w val="0.71435399410857536"/>
-          <c:h val="0.81202885023956228"/>
+          <c:y val="2.0639806072499132E-2"/>
+          <c:w val="0.71435399410857559"/>
+          <c:h val="0.81202885023956251"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -15673,11 +15611,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77128064"/>
-        <c:axId val="77130368"/>
+        <c:axId val="76556160"/>
+        <c:axId val="76571008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77128064"/>
+        <c:axId val="76556160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15700,14 +15638,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77130368"/>
+        <c:crossAx val="76571008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77130368"/>
+        <c:axId val="76571008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15732,7 +15670,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77128064"/>
+        <c:crossAx val="76556160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16083,8 +16021,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77214464"/>
-        <c:axId val="77216384"/>
+        <c:axId val="77744384"/>
+        <c:axId val="77754752"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16398,11 +16336,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77228672"/>
-        <c:axId val="77226752"/>
+        <c:axId val="77767040"/>
+        <c:axId val="77756672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77214464"/>
+        <c:axId val="77744384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16439,14 +16377,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77216384"/>
+        <c:crossAx val="77754752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77216384"/>
+        <c:axId val="77754752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16480,12 +16418,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77214464"/>
+        <c:crossAx val="77744384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77226752"/>
+        <c:axId val="77756672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16519,19 +16457,19 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77228672"/>
+        <c:crossAx val="77767040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="77228672"/>
+        <c:axId val="77767040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77226752"/>
+        <c:crossAx val="77756672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16787,8 +16725,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77275904"/>
-        <c:axId val="77277824"/>
+        <c:axId val="77789440"/>
+        <c:axId val="77803904"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16999,11 +16937,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77293824"/>
-        <c:axId val="77292288"/>
+        <c:axId val="77819904"/>
+        <c:axId val="77805824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77275904"/>
+        <c:axId val="77789440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17026,14 +16964,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77277824"/>
+        <c:crossAx val="77803904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77277824"/>
+        <c:axId val="77803904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17058,31 +16996,31 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77275904"/>
+        <c:crossAx val="77789440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77292288"/>
+        <c:axId val="77805824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77293824"/>
+        <c:crossAx val="77819904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="77293824"/>
+        <c:axId val="77819904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77292288"/>
+        <c:crossAx val="77805824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17499,25 +17437,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77361920"/>
-        <c:axId val="77363456"/>
+        <c:axId val="77908224"/>
+        <c:axId val="77922304"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77361920"/>
+        <c:axId val="77908224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77363456"/>
+        <c:crossAx val="77922304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77363456"/>
+        <c:axId val="77922304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17525,14 +17463,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77361920"/>
+        <c:crossAx val="77908224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -19174,24 +19111,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77402880"/>
-        <c:axId val="77404416"/>
+        <c:axId val="78006528"/>
+        <c:axId val="78028800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77402880"/>
+        <c:axId val="78006528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77404416"/>
+        <c:crossAx val="78028800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77404416"/>
+        <c:axId val="78028800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19199,14 +19136,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77402880"/>
+        <c:crossAx val="78006528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -19552,25 +19488,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77554816"/>
-        <c:axId val="77556352"/>
+        <c:axId val="78109312"/>
+        <c:axId val="78119296"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77554816"/>
+        <c:axId val="78109312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77556352"/>
+        <c:crossAx val="78119296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77556352"/>
+        <c:axId val="78119296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19578,14 +19514,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77554816"/>
+        <c:crossAx val="78109312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -19931,25 +19866,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77599488"/>
-        <c:axId val="77601024"/>
+        <c:axId val="78141696"/>
+        <c:axId val="78151680"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77599488"/>
+        <c:axId val="78141696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77601024"/>
+        <c:crossAx val="78151680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77601024"/>
+        <c:axId val="78151680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19957,14 +19892,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77599488"/>
+        <c:crossAx val="78141696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -21376,24 +21310,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77718272"/>
-        <c:axId val="77719808"/>
+        <c:axId val="78186752"/>
+        <c:axId val="78200832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77718272"/>
+        <c:axId val="78186752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77719808"/>
+        <c:crossAx val="78200832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77719808"/>
+        <c:axId val="78200832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21401,7 +21335,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77718272"/>
+        <c:crossAx val="78186752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21415,7 +21349,7 @@
           <c:x val="0.74749912510936123"/>
           <c:y val="0.16011774569845438"/>
           <c:w val="0.25250087489063888"/>
-          <c:h val="0.83717191601050756"/>
+          <c:h val="0.83717191601050789"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -21451,7 +21385,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -21646,12 +21579,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61169664"/>
-        <c:axId val="61171584"/>
+        <c:axId val="62922752"/>
+        <c:axId val="62924672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61169664"/>
+        <c:axId val="62922752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21672,17 +21605,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61171584"/>
+        <c:crossAx val="62924672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61171584"/>
+        <c:axId val="62924672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21704,18 +21636,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61169664"/>
+        <c:crossAx val="62922752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -22109,25 +22039,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77931648"/>
-        <c:axId val="77933184"/>
+        <c:axId val="78408320"/>
+        <c:axId val="78422400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77931648"/>
+        <c:axId val="78408320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77933184"/>
+        <c:crossAx val="78422400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77933184"/>
+        <c:axId val="78422400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22135,14 +22065,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77931648"/>
+        <c:crossAx val="78408320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -22488,25 +22417,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77988608"/>
-        <c:axId val="77990144"/>
+        <c:axId val="79563008"/>
+        <c:axId val="79593472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77988608"/>
+        <c:axId val="79563008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77990144"/>
+        <c:crossAx val="79593472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77990144"/>
+        <c:axId val="79593472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22514,14 +22443,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77988608"/>
+        <c:crossAx val="79563008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -22731,25 +22659,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76884992"/>
-        <c:axId val="76886784"/>
+        <c:axId val="79651584"/>
+        <c:axId val="79653120"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76884992"/>
+        <c:axId val="79651584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76886784"/>
+        <c:crossAx val="79653120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76886784"/>
+        <c:axId val="79653120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22757,14 +22685,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76884992"/>
+        <c:crossAx val="79651584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -22974,25 +22901,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76907648"/>
-        <c:axId val="76909184"/>
+        <c:axId val="79682176"/>
+        <c:axId val="64692608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76907648"/>
+        <c:axId val="79682176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76909184"/>
+        <c:crossAx val="64692608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76909184"/>
+        <c:axId val="64692608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23000,14 +22927,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76907648"/>
+        <c:crossAx val="79682176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -23193,25 +23119,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78187520"/>
-        <c:axId val="78193408"/>
+        <c:axId val="64713472"/>
+        <c:axId val="64715008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78187520"/>
+        <c:axId val="64713472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78193408"/>
+        <c:crossAx val="64715008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78193408"/>
+        <c:axId val="64715008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23219,14 +23145,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78187520"/>
+        <c:crossAx val="64713472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -23436,25 +23361,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78222464"/>
-        <c:axId val="78224000"/>
+        <c:axId val="64739968"/>
+        <c:axId val="79823232"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78222464"/>
+        <c:axId val="64739968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78224000"/>
+        <c:crossAx val="79823232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78224000"/>
+        <c:axId val="79823232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23462,14 +23387,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78222464"/>
+        <c:crossAx val="64739968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -23655,25 +23579,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78248960"/>
-        <c:axId val="78258944"/>
+        <c:axId val="79840000"/>
+        <c:axId val="79841536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78248960"/>
+        <c:axId val="79840000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78258944"/>
+        <c:crossAx val="79841536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78258944"/>
+        <c:axId val="79841536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23681,14 +23605,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78248960"/>
+        <c:crossAx val="79840000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -23874,25 +23797,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78374016"/>
-        <c:axId val="78375552"/>
+        <c:axId val="79875072"/>
+        <c:axId val="79893248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78374016"/>
+        <c:axId val="79875072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78375552"/>
+        <c:crossAx val="79893248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78375552"/>
+        <c:axId val="79893248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23900,14 +23823,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78374016"/>
+        <c:crossAx val="79875072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -23940,7 +23862,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -24407,24 +24328,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79834496"/>
-        <c:axId val="79856768"/>
+        <c:axId val="80058624"/>
+        <c:axId val="80064512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79834496"/>
+        <c:axId val="80058624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79856768"/>
+        <c:crossAx val="80064512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79856768"/>
+        <c:axId val="80064512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24432,14 +24353,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79834496"/>
+        <c:crossAx val="80058624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -24484,7 +24404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -24767,24 +24686,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79870208"/>
-        <c:axId val="78708736"/>
+        <c:axId val="80114816"/>
+        <c:axId val="80116352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79870208"/>
+        <c:axId val="80114816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78708736"/>
+        <c:crossAx val="80116352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78708736"/>
+        <c:axId val="80116352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24792,14 +24711,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79870208"/>
+        <c:crossAx val="80114816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -24831,7 +24749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -26518,11 +26435,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61219968"/>
-        <c:axId val="61221888"/>
+        <c:axId val="63050880"/>
+        <c:axId val="63052800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61219968"/>
+        <c:axId val="63050880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26543,17 +26460,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61221888"/>
+        <c:crossAx val="63052800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61221888"/>
+        <c:axId val="63052800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26575,18 +26491,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61219968"/>
+        <c:crossAx val="63050880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -26619,7 +26533,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -27095,25 +27008,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81501184"/>
-        <c:axId val="81519360"/>
+        <c:axId val="80200832"/>
+        <c:axId val="80202368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81501184"/>
+        <c:axId val="80200832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81519360"/>
+        <c:crossAx val="80202368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81519360"/>
+        <c:axId val="80202368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27121,14 +27034,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81501184"/>
+        <c:crossAx val="80200832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -27443,24 +27355,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81651968"/>
-        <c:axId val="76951552"/>
+        <c:axId val="76308864"/>
+        <c:axId val="76310400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81651968"/>
+        <c:axId val="76308864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76951552"/>
+        <c:crossAx val="76310400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76951552"/>
+        <c:axId val="76310400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27468,7 +27380,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81651968"/>
+        <c:crossAx val="76308864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27580,7 +27492,7 @@
                   <c:v>5.5250625145308513E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6944180805158356E-2</c:v>
+                  <c:v>1.6944180805158363E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.6969768650335613E-2</c:v>
@@ -27669,7 +27581,7 @@
                   <c:v>6.6062171674232714E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15830932412610246</c:v>
+                  <c:v>0.15830932412610249</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.4608937423083798E-2</c:v>
@@ -27678,13 +27590,13 @@
                   <c:v>3.8644806282753852E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5021043774769939E-2</c:v>
+                  <c:v>2.5021043774769949E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.2182817926554538E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9894458366193662E-2</c:v>
+                  <c:v>1.9894458366193666E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.1121629988015713E-2</c:v>
@@ -27755,7 +27667,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.15118479455706949</c:v>
+                  <c:v>0.15118479455706951</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.7766596212442584E-2</c:v>
@@ -27764,48 +27676,48 @@
                   <c:v>3.3324560249003474E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3330200448672462E-3</c:v>
+                  <c:v>9.333020044867248E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6693837501494849E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9221698265515733E-2</c:v>
+                  <c:v>1.922169826551574E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.5423836644690781E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5874189537269367E-2</c:v>
+                  <c:v>2.5874189537269377E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.6501047964198282E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10868956275848957</c:v>
+                  <c:v>0.10868956275848959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76989952"/>
-        <c:axId val="76991488"/>
+        <c:axId val="80235520"/>
+        <c:axId val="80323328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76989952"/>
+        <c:axId val="80235520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76991488"/>
+        <c:crossAx val="80323328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76991488"/>
+        <c:axId val="80323328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27813,7 +27725,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76989952"/>
+        <c:crossAx val="80235520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27841,9 +27753,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10349064045629872"/>
-          <c:y val="2.373457937880968E-2"/>
-          <c:w val="0.88338297677569089"/>
+          <c:x val="0.10924603700916362"/>
+          <c:y val="1.7214596341716452E-2"/>
+          <c:w val="0.88338297677569078"/>
           <c:h val="0.96348231625050973"/>
         </c:manualLayout>
       </c:layout>
@@ -28682,11 +28594,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="145142528"/>
-        <c:axId val="145144064"/>
+        <c:axId val="80569472"/>
+        <c:axId val="80571392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145142528"/>
+        <c:axId val="80569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28711,7 +28623,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.38419507682472509"/>
+              <c:x val="0.38419507682472515"/>
               <c:y val="0.95292261978546311"/>
             </c:manualLayout>
           </c:layout>
@@ -28727,14 +28639,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145144064"/>
+        <c:crossAx val="80571392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145144064"/>
+        <c:axId val="80571392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -28761,7 +28673,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145142528"/>
+        <c:crossAx val="80569472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -28789,9 +28701,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33000341094105418"/>
-          <c:y val="5.0193931097421859E-2"/>
-          <c:w val="0.33231931604740511"/>
+          <c:x val="0.33000341094105423"/>
+          <c:y val="5.019393109742188E-2"/>
+          <c:w val="0.33231931604740522"/>
           <c:h val="1.742466654583778E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -28812,13 +28724,1000 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14684735691343975"/>
+          <c:y val="0.40762522984072463"/>
+          <c:w val="0.7356611319188251"/>
+          <c:h val="0.52109168886236723"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$10:$L$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$10:$L$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$C$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$11:$L$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$11:$L$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$12:$L$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.9999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.7E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$12:$L$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.9999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.7E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$C$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$13:$L$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$13:$L$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="77100160"/>
+        <c:axId val="77102080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77100160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3841950768247252"/>
+              <c:y val="0.95292261978546311"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" i="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77102080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77102080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>x = ( ± ∆) [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77100160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29547103162386473"/>
+          <c:y val="0.44945454369035664"/>
+          <c:w val="0.33231931604740533"/>
+          <c:h val="1.742466654583778E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" b="1" i="1">
+          <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -29145,8 +30044,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83001728"/>
-        <c:axId val="83003648"/>
+        <c:axId val="79701120"/>
+        <c:axId val="79703040"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -29460,11 +30359,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83015936"/>
-        <c:axId val="83014016"/>
+        <c:axId val="79719424"/>
+        <c:axId val="79717504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83001728"/>
+        <c:axId val="79701120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29485,17 +30384,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83003648"/>
+        <c:crossAx val="79703040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83003648"/>
+        <c:axId val="79703040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29517,16 +30415,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83001728"/>
+        <c:crossAx val="79701120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83014016"/>
+        <c:axId val="79717504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29547,23 +30444,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83015936"/>
+        <c:crossAx val="79719424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="83015936"/>
+        <c:axId val="79719424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="83014016"/>
+        <c:crossAx val="79717504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -29572,7 +30468,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -29584,7 +30479,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -29897,8 +30792,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83143296"/>
-        <c:axId val="83153664"/>
+        <c:axId val="82009472"/>
+        <c:axId val="82019840"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -30212,11 +31107,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83157760"/>
-        <c:axId val="83155584"/>
+        <c:axId val="82032128"/>
+        <c:axId val="82021760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83143296"/>
+        <c:axId val="82009472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30237,17 +31132,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83153664"/>
+        <c:crossAx val="82019840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83153664"/>
+        <c:axId val="82019840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30269,16 +31163,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83143296"/>
+        <c:crossAx val="82009472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83155584"/>
+        <c:axId val="82021760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30299,23 +31192,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83157760"/>
+        <c:crossAx val="82032128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="83157760"/>
+        <c:axId val="82032128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="83155584"/>
+        <c:crossAx val="82021760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30324,7 +31216,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -30336,7 +31227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -30346,7 +31237,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.3396485550543474E-2"/>
+          <c:x val="6.3396485550543488E-2"/>
           <c:y val="5.6949671741960639E-2"/>
           <c:w val="0.9361008392992417"/>
           <c:h val="0.8721337816857776"/>
@@ -30631,24 +31522,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82777984"/>
-        <c:axId val="82779520"/>
+        <c:axId val="82111104"/>
+        <c:axId val="82186624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82777984"/>
+        <c:axId val="82111104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82779520"/>
+        <c:crossAx val="82186624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82779520"/>
+        <c:axId val="82186624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30656,243 +31547,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82777984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>allKOntur!$C$147</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>allKOntur!$D$146:$M$146</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>allKOntur!$D$147:$M$147</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.32793643849427156</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13830452279531988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20570329640977134</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6601832251862915E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7641115549793532E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7159508445750175E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0624854311839139E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3258966919840609</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0098236984373095E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17691353095764212</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>allKOntur!$C$149</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>allKOntur!$D$146:$M$146</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>allKOntur!$D$149:$M$149</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.29485488390131009</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10502861494528856</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14475859140869232</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.3444344802354103E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3586502052269442E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0385362743384467E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8043098308339117E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16036498200595273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4200234662799281E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.23008641459076148</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="82800000"/>
-        <c:axId val="82826368"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="82800000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82826368"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="82826368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82800000"/>
+        <c:crossAx val="82111104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30911,6 +31566,1230 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allKOntur!$C$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>allKOntur!$D$146:$M$146</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allKOntur!$D$147:$M$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.32793643849427156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13830452279531988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20570329640977134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6601832251862915E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7641115549793532E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7159508445750175E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0624854311839139E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3258966919840609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0098236984373095E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17691353095764212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allKOntur!$C$149</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>allKOntur!$D$146:$M$146</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allKOntur!$D$149:$M$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29485488390131009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10502861494528856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14475859140869232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3444344802354103E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3586502052269442E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0385362743384467E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8043098308339117E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16036498200595273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4200234662799281E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23008641459076148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="82211200"/>
+        <c:axId val="82212736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82211200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82212736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82212736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82211200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10924603700916362"/>
+          <c:y val="0.17585114204444216"/>
+          <c:w val="0.88338297677569055"/>
+          <c:h val="0.80484583034907053"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$10:$L$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$10:$L$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$C$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$11:$L$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$11:$L$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$12:$L$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.9999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.7E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$12:$L$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.9999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.7E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$C$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$13:$L$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$C$13:$L$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="79209984"/>
+        <c:axId val="79211904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="79209984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38419507682472526"/>
+              <c:y val="0.95292261978546311"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" i="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79211904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79211904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>x = ( ± ∆) [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79209984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35878039370537868"/>
+          <c:y val="0.20690299439816406"/>
+          <c:w val="0.33231931604740544"/>
+          <c:h val="1.742466654583778E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" b="1" i="1">
+          <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
@@ -30921,10 +32800,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17464556243833762"/>
-          <c:y val="9.7995802522824506E-3"/>
+          <c:x val="0.17464556243833765"/>
+          <c:y val="9.7995802522824541E-3"/>
           <c:w val="0.81321027365163812"/>
-          <c:h val="0.96601690995921663"/>
+          <c:h val="0.96601690995921641"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -31554,11 +33433,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61365632"/>
-        <c:axId val="61376000"/>
+        <c:axId val="63461248"/>
+        <c:axId val="63467520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61365632"/>
+        <c:axId val="63461248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31587,8 +33466,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.51403832437660479"/>
-              <c:y val="0.96854616686097861"/>
+              <c:x val="0.51403832437660468"/>
+              <c:y val="0.9685461668609785"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -31605,14 +33484,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61376000"/>
+        <c:crossAx val="63467520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61376000"/>
+        <c:axId val="63467520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.1"/>
@@ -31677,7 +33556,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61365632"/>
+        <c:crossAx val="63461248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -31755,9 +33634,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35562295670488447"/>
+          <c:x val="0.35562295670488453"/>
           <c:y val="6.2987016622922137E-2"/>
-          <c:w val="0.43890660808497511"/>
+          <c:w val="0.43890660808497522"/>
           <c:h val="0.11834326300139132"/>
         </c:manualLayout>
       </c:layout>
@@ -31789,9 +33668,7 @@
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -31881,12 +33758,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61319424"/>
-        <c:axId val="61337984"/>
+        <c:axId val="63514496"/>
+        <c:axId val="63516672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61319424"/>
+        <c:axId val="63514496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31907,17 +33784,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61337984"/>
+        <c:crossAx val="63516672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61337984"/>
+        <c:axId val="63516672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31939,18 +33815,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61319424"/>
+        <c:crossAx val="63514496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -31968,9 +33842,7 @@
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -32060,12 +33932,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61428096"/>
-        <c:axId val="61430016"/>
+        <c:axId val="63541248"/>
+        <c:axId val="63543168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61428096"/>
+        <c:axId val="63541248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32086,17 +33958,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61430016"/>
+        <c:crossAx val="63543168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61430016"/>
+        <c:axId val="63543168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32118,18 +33989,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61428096"/>
+        <c:crossAx val="63541248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -32169,7 +34038,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -32340,12 +34208,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61472128"/>
-        <c:axId val="61486592"/>
+        <c:axId val="63568896"/>
+        <c:axId val="63640704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61472128"/>
+        <c:axId val="63568896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32366,17 +34234,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61486592"/>
+        <c:crossAx val="63640704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61486592"/>
+        <c:axId val="63640704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32398,18 +34265,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61472128"/>
+        <c:crossAx val="63568896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -33258,14 +35123,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33279,6 +35144,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -33564,6 +35459,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34447,204 +36377,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="nFxxFräs"/>
-      <sheetName val="nF17fräs"/>
-      <sheetName val="nF18Fräs"/>
-      <sheetName val="Gegenüberstelungen FräsBieg"/>
-      <sheetName val="LaborVergleich"/>
-      <sheetName val="nF13fräs"/>
-      <sheetName val="Vergl.Fäs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>MP1a</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>MP2a</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>MP3a</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>MP4a</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>MP5a</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>MP6a</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>MP7a</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>MP8a</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>MP9a</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>MP10a</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>nF13</v>
-          </cell>
-          <cell r="D6">
-            <v>0.24575126492151839</v>
-          </cell>
-          <cell r="E6">
-            <v>0.27095348212134901</v>
-          </cell>
-          <cell r="F6">
-            <v>0.19027611515899726</v>
-          </cell>
-          <cell r="G6">
-            <v>1.9841477024816312E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>2.3597502097958335E-2</v>
-          </cell>
-          <cell r="I6">
-            <v>2.8335397241649171E-2</v>
-          </cell>
-          <cell r="J6">
-            <v>3.1834274809261667E-2</v>
-          </cell>
-          <cell r="K6">
-            <v>0.14628289103831021</v>
-          </cell>
-          <cell r="L6">
-            <v>0.26684117097313848</v>
-          </cell>
-          <cell r="M6">
-            <v>0.18101759146848873</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>nFxx</v>
-          </cell>
-          <cell r="D7">
-            <v>0.27653637811516296</v>
-          </cell>
-          <cell r="E7">
-            <v>0.23988154971722386</v>
-          </cell>
-          <cell r="F7">
-            <v>0.12647030023727018</v>
-          </cell>
-          <cell r="G7">
-            <v>2.4899799195977301E-2</v>
-          </cell>
-          <cell r="H7">
-            <v>3.2606102108912703E-2</v>
-          </cell>
-          <cell r="I7">
-            <v>2.4809802816416617E-2</v>
-          </cell>
-          <cell r="J7">
-            <v>2.881885347805227E-2</v>
-          </cell>
-          <cell r="K7">
-            <v>0.2016093147388629</v>
-          </cell>
-          <cell r="L7">
-            <v>0.19285664160335861</v>
-          </cell>
-          <cell r="M7">
-            <v>0.21902355076446389</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>nF17</v>
-          </cell>
-          <cell r="D8">
-            <v>0.12143332586888554</v>
-          </cell>
-          <cell r="E8">
-            <v>0.15094352377104689</v>
-          </cell>
-          <cell r="F8">
-            <v>8.6235601391585134E-2</v>
-          </cell>
-          <cell r="G8">
-            <v>3.1867323637065369E-2</v>
-          </cell>
-          <cell r="H8">
-            <v>2.5526044491233284E-2</v>
-          </cell>
-          <cell r="I8">
-            <v>3.8099592482970492E-2</v>
-          </cell>
-          <cell r="J8">
-            <v>3.3308762874212805E-2</v>
-          </cell>
-          <cell r="K8">
-            <v>0.11520576557209559</v>
-          </cell>
-          <cell r="L8">
-            <v>0.23059362751956444</v>
-          </cell>
-          <cell r="M8">
-            <v>0.21598915664790441</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>F18</v>
-          </cell>
-          <cell r="D9">
-            <v>0.14475023861447475</v>
-          </cell>
-          <cell r="E9">
-            <v>0.15401298646542766</v>
-          </cell>
-          <cell r="F9">
-            <v>8.7141747805092262E-2</v>
-          </cell>
-          <cell r="G9">
-            <v>2.6137289353275334E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>6.366028258614094E-2</v>
-          </cell>
-          <cell r="I9">
-            <v>7.1884410139143637E-2</v>
-          </cell>
-          <cell r="J9">
-            <v>4.6052030071259679E-2</v>
-          </cell>
-          <cell r="K9">
-            <v>0.14869962658785785</v>
-          </cell>
-          <cell r="L9">
-            <v>0.29006532839490162</v>
-          </cell>
-          <cell r="M9">
-            <v>0.40218187820672957</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle14" displayName="Tabelle14" ref="C12:M33" totalsRowCount="1">
   <autoFilter ref="C12:M32"/>
@@ -47947,8 +49679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L190" sqref="L190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49793,7 +51525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q102" sqref="Q102"/>
     </sheetView>
   </sheetViews>
@@ -50851,7 +52583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:M149"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N147" sqref="N147"/>
     </sheetView>
   </sheetViews>
@@ -55392,6 +57124,21 @@
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SandboxVDKD.xlsx
+++ b/SandboxVDKD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10590" windowHeight="13620" tabRatio="930" firstSheet="14" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10590" windowHeight="13620" tabRatio="930" firstSheet="9" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Kontur aussen F17Chr1" sheetId="1" r:id="rId1"/>
@@ -2253,12 +2253,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80560896"/>
-        <c:axId val="80563200"/>
+        <c:axId val="57191424"/>
+        <c:axId val="58402304"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80560896"/>
+        <c:axId val="57191424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,14 +2282,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80563200"/>
+        <c:crossAx val="58402304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80563200"/>
+        <c:axId val="58402304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +2314,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80560896"/>
+        <c:crossAx val="57191424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2524,12 +2524,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="55169792"/>
-        <c:axId val="55171712"/>
+        <c:axId val="61966976"/>
+        <c:axId val="61981440"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="55169792"/>
+        <c:axId val="61966976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,14 +2552,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55171712"/>
+        <c:crossAx val="61981440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55171712"/>
+        <c:axId val="61981440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,7 +2584,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55169792"/>
+        <c:crossAx val="61966976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2627,7 +2627,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34048408325799939"/>
+          <c:x val="0.3404840832579995"/>
           <c:y val="1.290322580645162E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4077,11 +4077,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56608640"/>
-        <c:axId val="56635392"/>
+        <c:axId val="63418368"/>
+        <c:axId val="63420288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56608640"/>
+        <c:axId val="63418368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4104,14 +4104,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56635392"/>
+        <c:crossAx val="63420288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56635392"/>
+        <c:axId val="63420288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4136,7 +4136,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56608640"/>
+        <c:crossAx val="63418368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4262,12 +4262,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="56693888"/>
-        <c:axId val="56695808"/>
+        <c:axId val="63511552"/>
+        <c:axId val="63521920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="56693888"/>
+        <c:axId val="63511552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4290,14 +4290,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56695808"/>
+        <c:crossAx val="63521920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56695808"/>
+        <c:axId val="63521920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4322,7 +4322,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56693888"/>
+        <c:crossAx val="63511552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4448,12 +4448,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="56712576"/>
-        <c:axId val="56722944"/>
+        <c:axId val="63555072"/>
+        <c:axId val="63556992"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="56712576"/>
+        <c:axId val="63555072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4476,14 +4476,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56722944"/>
+        <c:crossAx val="63556992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56722944"/>
+        <c:axId val="63556992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4508,7 +4508,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56712576"/>
+        <c:crossAx val="63555072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4742,12 +4742,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="56732288"/>
-        <c:axId val="56734464"/>
+        <c:axId val="63595264"/>
+        <c:axId val="63597184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="56732288"/>
+        <c:axId val="63595264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4770,14 +4770,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56734464"/>
+        <c:crossAx val="63597184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56734464"/>
+        <c:axId val="63597184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4802,7 +4802,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56732288"/>
+        <c:crossAx val="63595264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5036,12 +5036,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="56752000"/>
-        <c:axId val="56856576"/>
+        <c:axId val="63897600"/>
+        <c:axId val="63899520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="56752000"/>
+        <c:axId val="63897600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5064,14 +5064,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56856576"/>
+        <c:crossAx val="63899520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56856576"/>
+        <c:axId val="63899520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5096,7 +5096,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56752000"/>
+        <c:crossAx val="63897600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6653,11 +6653,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57300480"/>
-        <c:axId val="57302400"/>
+        <c:axId val="64015744"/>
+        <c:axId val="64296448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57300480"/>
+        <c:axId val="64015744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6680,14 +6680,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57302400"/>
+        <c:crossAx val="64296448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57302400"/>
+        <c:axId val="64296448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6712,7 +6712,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57300480"/>
+        <c:crossAx val="64015744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6838,12 +6838,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58143488"/>
-        <c:axId val="58145408"/>
+        <c:axId val="64371328"/>
+        <c:axId val="64377600"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58143488"/>
+        <c:axId val="64371328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,14 +6866,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58145408"/>
+        <c:crossAx val="64377600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58145408"/>
+        <c:axId val="64377600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,7 +6898,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58143488"/>
+        <c:crossAx val="64371328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7024,12 +7024,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58153984"/>
-        <c:axId val="58160256"/>
+        <c:axId val="64414848"/>
+        <c:axId val="64416768"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58153984"/>
+        <c:axId val="64414848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7052,14 +7052,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58160256"/>
+        <c:crossAx val="64416768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58160256"/>
+        <c:axId val="64416768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7084,7 +7084,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58153984"/>
+        <c:crossAx val="64414848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7300,12 +7300,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58263808"/>
-        <c:axId val="58278272"/>
+        <c:axId val="64549248"/>
+        <c:axId val="64551168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58263808"/>
+        <c:axId val="64549248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7328,14 +7328,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58278272"/>
+        <c:crossAx val="64551168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58278272"/>
+        <c:axId val="64551168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7360,7 +7360,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58263808"/>
+        <c:crossAx val="64549248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7486,12 +7486,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83136896"/>
-        <c:axId val="83275136"/>
+        <c:axId val="58443648"/>
+        <c:axId val="58445824"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83136896"/>
+        <c:axId val="58443648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7515,14 +7515,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83275136"/>
+        <c:crossAx val="58445824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83275136"/>
+        <c:axId val="58445824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7547,7 +7547,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83136896"/>
+        <c:crossAx val="58443648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7757,12 +7757,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58291712"/>
-        <c:axId val="58293632"/>
+        <c:axId val="64572800"/>
+        <c:axId val="64529920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58291712"/>
+        <c:axId val="64572800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7785,14 +7785,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58293632"/>
+        <c:crossAx val="64529920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58293632"/>
+        <c:axId val="64529920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7817,7 +7817,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58291712"/>
+        <c:crossAx val="64572800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9320,11 +9320,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58381440"/>
-        <c:axId val="58383360"/>
+        <c:axId val="64748544"/>
+        <c:axId val="64627840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58381440"/>
+        <c:axId val="64748544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9347,14 +9347,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58383360"/>
+        <c:crossAx val="64627840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58383360"/>
+        <c:axId val="64627840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9379,7 +9379,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58381440"/>
+        <c:crossAx val="64748544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9715,12 +9715,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58472320"/>
-        <c:axId val="58478592"/>
+        <c:axId val="64765952"/>
+        <c:axId val="64767872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58472320"/>
+        <c:axId val="64765952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9743,14 +9743,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58478592"/>
+        <c:crossAx val="64767872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58478592"/>
+        <c:axId val="64767872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9775,7 +9775,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58472320"/>
+        <c:crossAx val="64765952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10101,12 +10101,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58566528"/>
-        <c:axId val="58585088"/>
+        <c:axId val="64806912"/>
+        <c:axId val="64808832"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58566528"/>
+        <c:axId val="64806912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10129,14 +10129,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58585088"/>
+        <c:crossAx val="64808832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58585088"/>
+        <c:axId val="64808832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10161,7 +10161,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58566528"/>
+        <c:crossAx val="64806912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10190,7 +10190,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10380985519199599"/>
+          <c:x val="0.10380985519199597"/>
           <c:y val="2.0090599786137843E-2"/>
           <c:w val="0.69093100678290831"/>
           <c:h val="0.79508091118239854"/>
@@ -10523,11 +10523,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58619008"/>
-        <c:axId val="58621312"/>
+        <c:axId val="65178624"/>
+        <c:axId val="65189376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58619008"/>
+        <c:axId val="65178624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10554,14 +10554,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58621312"/>
+        <c:crossAx val="65189376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58621312"/>
+        <c:axId val="65189376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10593,7 +10593,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58619008"/>
+        <c:crossAx val="65178624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10734,12 +10734,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="59031552"/>
-        <c:axId val="59033472"/>
+        <c:axId val="65283968"/>
+        <c:axId val="65286144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59031552"/>
+        <c:axId val="65283968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10762,14 +10762,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59033472"/>
+        <c:crossAx val="65286144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59033472"/>
+        <c:axId val="65286144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10794,7 +10794,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59031552"/>
+        <c:crossAx val="65283968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10942,12 +10942,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="59902208"/>
-        <c:axId val="59912576"/>
+        <c:axId val="65311104"/>
+        <c:axId val="65313024"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59902208"/>
+        <c:axId val="65311104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10970,14 +10970,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59912576"/>
+        <c:crossAx val="65313024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59912576"/>
+        <c:axId val="65313024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11002,7 +11002,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59902208"/>
+        <c:crossAx val="65311104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11292,12 +11292,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="59947264"/>
-        <c:axId val="59957632"/>
+        <c:axId val="65364352"/>
+        <c:axId val="65366272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59947264"/>
+        <c:axId val="65364352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11320,14 +11320,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59957632"/>
+        <c:crossAx val="65366272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59957632"/>
+        <c:axId val="65366272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11352,7 +11352,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59947264"/>
+        <c:crossAx val="65364352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11642,12 +11642,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61221120"/>
-        <c:axId val="61235584"/>
+        <c:axId val="65413504"/>
+        <c:axId val="65415424"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61221120"/>
+        <c:axId val="65413504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11670,14 +11670,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61235584"/>
+        <c:crossAx val="65415424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61235584"/>
+        <c:axId val="65415424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11702,7 +11702,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61221120"/>
+        <c:crossAx val="65413504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11751,7 +11751,7 @@
           <c:x val="7.4558952075056473E-2"/>
           <c:y val="8.9218171358717152E-2"/>
           <c:w val="0.77271636572474856"/>
-          <c:h val="0.84410365656349085"/>
+          <c:h val="0.84410365656349107"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -13377,11 +13377,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61570432"/>
-        <c:axId val="61576704"/>
+        <c:axId val="65521152"/>
+        <c:axId val="65523072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61570432"/>
+        <c:axId val="65521152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13404,14 +13404,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61576704"/>
+        <c:crossAx val="65523072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61576704"/>
+        <c:axId val="65523072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13436,7 +13436,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61570432"/>
+        <c:crossAx val="65521152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13670,12 +13670,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="94401280"/>
-        <c:axId val="94403200"/>
+        <c:axId val="58946688"/>
+        <c:axId val="58948608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94401280"/>
+        <c:axId val="58946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13698,14 +13698,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94403200"/>
+        <c:crossAx val="58948608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94403200"/>
+        <c:axId val="58948608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13730,7 +13730,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94401280"/>
+        <c:crossAx val="58946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14094,8 +14094,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="61713408"/>
-        <c:axId val="62010496"/>
+        <c:axId val="65864832"/>
+        <c:axId val="65866752"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -14404,11 +14404,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="62022784"/>
-        <c:axId val="62012416"/>
+        <c:axId val="65895424"/>
+        <c:axId val="65893504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61713408"/>
+        <c:axId val="65864832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14431,12 +14431,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62010496"/>
+        <c:crossAx val="65866752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62010496"/>
+        <c:axId val="65866752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14461,12 +14461,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61713408"/>
+        <c:crossAx val="65864832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62012416"/>
+        <c:axId val="65893504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14490,19 +14490,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62022784"/>
+        <c:crossAx val="65895424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62022784"/>
+        <c:axId val="65895424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62012416"/>
+        <c:crossAx val="65893504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14859,8 +14859,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63714816"/>
-        <c:axId val="63721472"/>
+        <c:axId val="66067840"/>
+        <c:axId val="66078592"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15189,11 +15189,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63724928"/>
-        <c:axId val="63723392"/>
+        <c:axId val="66102784"/>
+        <c:axId val="66101248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63714816"/>
+        <c:axId val="66067840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15216,14 +15216,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63721472"/>
+        <c:crossAx val="66078592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63721472"/>
+        <c:axId val="66078592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15247,31 +15247,31 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63714816"/>
+        <c:crossAx val="66067840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63723392"/>
+        <c:axId val="66101248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63724928"/>
+        <c:crossAx val="66102784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="63724928"/>
+        <c:axId val="66102784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="63723392"/>
+        <c:crossAx val="66101248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15303,9 +15303,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12353484934259892"/>
-          <c:y val="2.063980607249916E-2"/>
-          <c:w val="0.71435399410857603"/>
-          <c:h val="0.81202885023956295"/>
+          <c:y val="2.0639806072499173E-2"/>
+          <c:w val="0.71435399410857614"/>
+          <c:h val="0.81202885023956306"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -15614,11 +15614,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63754624"/>
-        <c:axId val="63756928"/>
+        <c:axId val="66136320"/>
+        <c:axId val="66142976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63754624"/>
+        <c:axId val="66136320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15641,14 +15641,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63756928"/>
+        <c:crossAx val="66142976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63756928"/>
+        <c:axId val="66142976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15673,7 +15673,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63754624"/>
+        <c:crossAx val="66136320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16024,8 +16024,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63820544"/>
-        <c:axId val="63822464"/>
+        <c:axId val="66529920"/>
+        <c:axId val="66552576"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16339,11 +16339,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63830656"/>
-        <c:axId val="63828736"/>
+        <c:axId val="66564864"/>
+        <c:axId val="66554496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63820544"/>
+        <c:axId val="66529920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16368,7 +16368,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -16381,14 +16380,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63822464"/>
+        <c:crossAx val="66552576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63822464"/>
+        <c:axId val="66552576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16409,7 +16408,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -16423,12 +16421,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63820544"/>
+        <c:crossAx val="66529920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63828736"/>
+        <c:axId val="66554496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16449,7 +16447,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -16463,19 +16460,19 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63830656"/>
+        <c:crossAx val="66564864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="63830656"/>
+        <c:axId val="66564864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="63828736"/>
+        <c:crossAx val="66554496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16484,7 +16481,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -16732,8 +16728,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63869696"/>
-        <c:axId val="63871616"/>
+        <c:axId val="66583168"/>
+        <c:axId val="66474752"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16944,11 +16940,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63879424"/>
-        <c:axId val="63877888"/>
+        <c:axId val="66482560"/>
+        <c:axId val="66476672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63869696"/>
+        <c:axId val="66583168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16972,14 +16968,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63871616"/>
+        <c:crossAx val="66474752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63871616"/>
+        <c:axId val="66474752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17005,31 +17001,31 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63869696"/>
+        <c:crossAx val="66583168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63877888"/>
+        <c:axId val="66476672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63879424"/>
+        <c:crossAx val="66482560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="63879424"/>
+        <c:axId val="66482560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="63877888"/>
+        <c:crossAx val="66476672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17683,11 +17679,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63913984"/>
-        <c:axId val="63915904"/>
+        <c:axId val="66611072"/>
+        <c:axId val="66617344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63913984"/>
+        <c:axId val="66611072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17703,7 +17699,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Messwerte</a:t>
+                  <a:t>Messpunkte</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -17712,8 +17708,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45109582125147929"/>
-              <c:y val="0.77970486563789143"/>
+              <c:x val="0.45109582125147935"/>
+              <c:y val="0.77970486563789165"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -17728,14 +17724,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63915904"/>
+        <c:crossAx val="66617344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63915904"/>
+        <c:axId val="66617344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17770,7 +17766,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63913984"/>
+        <c:crossAx val="66611072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17793,9 +17789,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35340905336797063"/>
+          <c:x val="0.35340905336797074"/>
           <c:y val="0.15285974214954323"/>
-          <c:w val="0.26010869590547325"/>
+          <c:w val="0.26010869590547336"/>
           <c:h val="9.7789125328347729E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -17826,7 +17822,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -18229,25 +18225,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63980672"/>
-        <c:axId val="63982208"/>
+        <c:axId val="66767872"/>
+        <c:axId val="66781952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63980672"/>
+        <c:axId val="66767872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63982208"/>
+        <c:crossAx val="66781952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63982208"/>
+        <c:axId val="66781952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18255,7 +18251,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63980672"/>
+        <c:crossAx val="66767872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19903,24 +19899,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68605056"/>
-        <c:axId val="68606592"/>
+        <c:axId val="67922944"/>
+        <c:axId val="67928832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68605056"/>
+        <c:axId val="67922944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68606592"/>
+        <c:crossAx val="67928832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68606592"/>
+        <c:axId val="67928832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19928,14 +19924,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68605056"/>
+        <c:crossAx val="67922944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -20281,25 +20276,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68675072"/>
-        <c:axId val="68676608"/>
+        <c:axId val="68021632"/>
+        <c:axId val="68031616"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68675072"/>
+        <c:axId val="68021632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68676608"/>
+        <c:crossAx val="68031616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68676608"/>
+        <c:axId val="68031616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20307,14 +20302,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68675072"/>
+        <c:crossAx val="68021632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -20660,25 +20654,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68711552"/>
-        <c:axId val="68713088"/>
+        <c:axId val="68066304"/>
+        <c:axId val="68080384"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68711552"/>
+        <c:axId val="68066304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68713088"/>
+        <c:crossAx val="68080384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68713088"/>
+        <c:axId val="68080384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20686,14 +20680,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68711552"/>
+        <c:crossAx val="68066304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -20921,12 +20914,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="95247360"/>
-        <c:axId val="95259648"/>
+        <c:axId val="58978688"/>
+        <c:axId val="58980608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="95247360"/>
+        <c:axId val="58978688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20949,14 +20942,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95259648"/>
+        <c:crossAx val="58980608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95259648"/>
+        <c:axId val="58980608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20981,7 +20974,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95247360"/>
+        <c:crossAx val="58978688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22399,24 +22392,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68805760"/>
-        <c:axId val="68807296"/>
+        <c:axId val="68107264"/>
+        <c:axId val="68121344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68805760"/>
+        <c:axId val="68107264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68807296"/>
+        <c:crossAx val="68121344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68807296"/>
+        <c:axId val="68121344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22424,7 +22417,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68805760"/>
+        <c:crossAx val="68107264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22438,7 +22431,7 @@
           <c:x val="0.74749912510936123"/>
           <c:y val="0.16011774569845438"/>
           <c:w val="0.25250087489063888"/>
-          <c:h val="0.83717191601050855"/>
+          <c:h val="0.83717191601050878"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -22834,25 +22827,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68945408"/>
-        <c:axId val="68946944"/>
+        <c:axId val="69905792"/>
+        <c:axId val="69915776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68945408"/>
+        <c:axId val="69905792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68946944"/>
+        <c:crossAx val="69915776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68946944"/>
+        <c:axId val="69915776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22860,7 +22853,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68945408"/>
+        <c:crossAx val="69905792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23212,25 +23205,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68977792"/>
-        <c:axId val="68979328"/>
+        <c:axId val="70003712"/>
+        <c:axId val="70021888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68977792"/>
+        <c:axId val="70003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68979328"/>
+        <c:crossAx val="70021888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68979328"/>
+        <c:axId val="70021888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23238,13 +23231,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68977792"/>
+        <c:crossAx val="70003712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -23454,25 +23448,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69037440"/>
-        <c:axId val="69047424"/>
+        <c:axId val="70088192"/>
+        <c:axId val="70089728"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69037440"/>
+        <c:axId val="70088192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69047424"/>
+        <c:crossAx val="70089728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69047424"/>
+        <c:axId val="70089728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23480,7 +23474,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69037440"/>
+        <c:crossAx val="70088192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23696,25 +23690,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70137344"/>
-        <c:axId val="70138880"/>
+        <c:axId val="70122880"/>
+        <c:axId val="70132864"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70137344"/>
+        <c:axId val="70122880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70138880"/>
+        <c:crossAx val="70132864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70138880"/>
+        <c:axId val="70132864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23722,7 +23716,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70137344"/>
+        <c:crossAx val="70122880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23914,25 +23908,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70151552"/>
-        <c:axId val="70169728"/>
+        <c:axId val="70149632"/>
+        <c:axId val="70151168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70151552"/>
+        <c:axId val="70149632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70169728"/>
+        <c:crossAx val="70151168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70169728"/>
+        <c:axId val="70151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23940,7 +23934,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70151552"/>
+        <c:crossAx val="70149632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24156,25 +24150,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70190592"/>
-        <c:axId val="70192128"/>
+        <c:axId val="70180224"/>
+        <c:axId val="70190208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70190592"/>
+        <c:axId val="70180224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70192128"/>
+        <c:crossAx val="70190208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70192128"/>
+        <c:axId val="70190208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24182,7 +24176,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70190592"/>
+        <c:crossAx val="70180224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24374,25 +24368,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70237568"/>
-        <c:axId val="70243456"/>
+        <c:axId val="70211072"/>
+        <c:axId val="70212608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70237568"/>
+        <c:axId val="70211072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70243456"/>
+        <c:crossAx val="70212608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70243456"/>
+        <c:axId val="70212608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24400,13 +24394,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70237568"/>
+        <c:crossAx val="70211072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -24592,25 +24587,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75245440"/>
-        <c:axId val="75246976"/>
+        <c:axId val="70242304"/>
+        <c:axId val="70243840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75245440"/>
+        <c:axId val="70242304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75246976"/>
+        <c:crossAx val="70243840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75246976"/>
+        <c:axId val="70243840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24618,13 +24613,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75245440"/>
+        <c:crossAx val="70242304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -25123,24 +25119,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75404032"/>
-        <c:axId val="75405568"/>
+        <c:axId val="70499328"/>
+        <c:axId val="70517504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75404032"/>
+        <c:axId val="70499328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75405568"/>
+        <c:crossAx val="70517504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75405568"/>
+        <c:axId val="70517504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25148,7 +25144,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75404032"/>
+        <c:crossAx val="70499328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26872,11 +26868,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118802688"/>
-        <c:axId val="118927744"/>
+        <c:axId val="61408768"/>
+        <c:axId val="61410688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118802688"/>
+        <c:axId val="61408768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26899,14 +26895,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118927744"/>
+        <c:crossAx val="61410688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118927744"/>
+        <c:axId val="61410688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26931,7 +26927,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118802688"/>
+        <c:crossAx val="61408768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27265,24 +27261,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75427200"/>
-        <c:axId val="75441280"/>
+        <c:axId val="70535040"/>
+        <c:axId val="70536576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75427200"/>
+        <c:axId val="70535040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75441280"/>
+        <c:crossAx val="70536576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75441280"/>
+        <c:axId val="70536576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27290,7 +27286,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75427200"/>
+        <c:crossAx val="70535040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27803,25 +27799,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75529600"/>
-        <c:axId val="75539584"/>
+        <c:axId val="70629248"/>
+        <c:axId val="70630784"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75529600"/>
+        <c:axId val="70629248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75539584"/>
+        <c:crossAx val="70630784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75539584"/>
+        <c:axId val="70630784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27829,7 +27825,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75529600"/>
+        <c:crossAx val="70629248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28150,24 +28146,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75729536"/>
-        <c:axId val="75743616"/>
+        <c:axId val="70399104"/>
+        <c:axId val="70400640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75729536"/>
+        <c:axId val="70399104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75743616"/>
+        <c:crossAx val="70400640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75743616"/>
+        <c:axId val="70400640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28175,7 +28171,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75729536"/>
+        <c:crossAx val="70399104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28287,7 +28283,7 @@
                   <c:v>5.5250625145308513E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6944180805158374E-2</c:v>
+                  <c:v>1.6944180805158381E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.6969768650335613E-2</c:v>
@@ -28376,7 +28372,7 @@
                   <c:v>6.6062171674232714E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15830932412610263</c:v>
+                  <c:v>0.15830932412610269</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.4608937423083798E-2</c:v>
@@ -28385,13 +28381,13 @@
                   <c:v>3.8644806282753852E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5021043774769981E-2</c:v>
+                  <c:v>2.5021043774769991E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.2182817926554538E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9894458366193676E-2</c:v>
+                  <c:v>1.989445836619368E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.1121629988015713E-2</c:v>
@@ -28462,7 +28458,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.15118479455706962</c:v>
+                  <c:v>0.15118479455706968</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.7766596212442584E-2</c:v>
@@ -28471,48 +28467,48 @@
                   <c:v>3.3324560249003474E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3330200448672566E-3</c:v>
+                  <c:v>9.3330200448672584E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6693837501494849E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9221698265515758E-2</c:v>
+                  <c:v>1.9221698265515764E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.5423836644690781E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5874189537269398E-2</c:v>
+                  <c:v>2.5874189537269405E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.6501047964198282E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10868956275848966</c:v>
+                  <c:v>0.10868956275848968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75961856"/>
-        <c:axId val="75963392"/>
+        <c:axId val="70443008"/>
+        <c:axId val="70444544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75961856"/>
+        <c:axId val="70443008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75963392"/>
+        <c:crossAx val="70444544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75963392"/>
+        <c:axId val="70444544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28520,7 +28516,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75961856"/>
+        <c:crossAx val="70443008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28550,8 +28546,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10924603700916362"/>
           <c:y val="1.7214596341716463E-2"/>
-          <c:w val="0.88338297677569044"/>
-          <c:h val="0.97485657049052632"/>
+          <c:w val="0.88338297677569033"/>
+          <c:h val="0.97485657049052643"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -29389,11 +29385,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76033408"/>
-        <c:axId val="76043776"/>
+        <c:axId val="80713600"/>
+        <c:axId val="80723968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76033408"/>
+        <c:axId val="80713600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29418,7 +29414,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.38733697964077002"/>
+              <c:x val="0.38733697964077013"/>
               <c:y val="0.93102214875889044"/>
             </c:manualLayout>
           </c:layout>
@@ -29434,14 +29430,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76043776"/>
+        <c:crossAx val="80723968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76043776"/>
+        <c:axId val="80723968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -29475,7 +29471,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76033408"/>
+        <c:crossAx val="80713600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -29503,9 +29499,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33000341094105445"/>
-          <c:y val="5.0193931097421936E-2"/>
-          <c:w val="0.33231931604740556"/>
+          <c:x val="0.33000341094105451"/>
+          <c:y val="5.0193931097421957E-2"/>
+          <c:w val="0.33231931604740567"/>
           <c:h val="1.742466654583778E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -29526,7 +29522,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -29542,10 +29538,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14684735691343984"/>
+          <c:x val="0.14684735691343986"/>
           <c:y val="0.4076252298407248"/>
-          <c:w val="0.73566113191882543"/>
-          <c:h val="0.5210916888623669"/>
+          <c:w val="0.73566113191882554"/>
+          <c:h val="0.52109168886236679"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -30383,11 +30379,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76093696"/>
-        <c:axId val="76116352"/>
+        <c:axId val="81908480"/>
+        <c:axId val="81910400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76093696"/>
+        <c:axId val="81908480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30428,14 +30424,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76116352"/>
+        <c:crossAx val="81910400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76116352"/>
+        <c:axId val="81910400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -30461,7 +30457,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76093696"/>
+        <c:crossAx val="81908480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -30489,9 +30485,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29547103162386495"/>
+          <c:x val="0.29547103162386501"/>
           <c:y val="0.44945454369035681"/>
-          <c:w val="0.33231931604740567"/>
+          <c:w val="0.33231931604740578"/>
           <c:h val="1.742466654583778E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -30512,7 +30508,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -30845,8 +30841,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77674368"/>
-        <c:axId val="77697024"/>
+        <c:axId val="89575808"/>
+        <c:axId val="89577728"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -31160,11 +31156,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77709312"/>
-        <c:axId val="77698944"/>
+        <c:axId val="89581824"/>
+        <c:axId val="89579904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77674368"/>
+        <c:axId val="89575808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31187,14 +31183,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77697024"/>
+        <c:crossAx val="89577728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77697024"/>
+        <c:axId val="89577728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31219,12 +31215,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77674368"/>
+        <c:crossAx val="89575808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77698944"/>
+        <c:axId val="89579904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31248,19 +31244,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77709312"/>
+        <c:crossAx val="89581824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="77709312"/>
+        <c:axId val="89581824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77698944"/>
+        <c:crossAx val="89579904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -31593,8 +31589,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77873536"/>
-        <c:axId val="77875456"/>
+        <c:axId val="83208832"/>
+        <c:axId val="83227392"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -31908,11 +31904,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77879552"/>
-        <c:axId val="77877632"/>
+        <c:axId val="89592576"/>
+        <c:axId val="83229312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77873536"/>
+        <c:axId val="83208832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31935,14 +31931,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77875456"/>
+        <c:crossAx val="83227392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77875456"/>
+        <c:axId val="83227392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31967,12 +31963,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77873536"/>
+        <c:crossAx val="83208832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77877632"/>
+        <c:axId val="83229312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31996,19 +31992,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77879552"/>
+        <c:crossAx val="89592576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="77879552"/>
+        <c:axId val="89592576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77877632"/>
+        <c:crossAx val="83229312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -32038,7 +32034,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.3396485550543571E-2"/>
+          <c:x val="6.3396485550543585E-2"/>
           <c:y val="5.6949671741960639E-2"/>
           <c:w val="0.9361008392992417"/>
           <c:h val="0.8721337816857776"/>
@@ -32323,24 +32319,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78040064"/>
-        <c:axId val="80155392"/>
+        <c:axId val="89789952"/>
+        <c:axId val="89791488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78040064"/>
+        <c:axId val="89789952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80155392"/>
+        <c:crossAx val="89791488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80155392"/>
+        <c:axId val="89791488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32348,7 +32344,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78040064"/>
+        <c:crossAx val="89789952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32559,24 +32555,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80196352"/>
-        <c:axId val="80197888"/>
+        <c:axId val="89828352"/>
+        <c:axId val="89830144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80196352"/>
+        <c:axId val="89828352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80197888"/>
+        <c:crossAx val="89830144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80197888"/>
+        <c:axId val="89830144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32584,7 +32580,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80196352"/>
+        <c:crossAx val="89828352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32613,9 +32609,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1746455624383377"/>
-          <c:y val="9.7995802522824662E-3"/>
+          <c:y val="9.7995802522824697E-3"/>
           <c:w val="0.81321027365163812"/>
-          <c:h val="0.96601690995921607"/>
+          <c:h val="0.96601690995921596"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -33245,11 +33241,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="119996416"/>
-        <c:axId val="119998336"/>
+        <c:axId val="61819136"/>
+        <c:axId val="61825408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119996416"/>
+        <c:axId val="61819136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33296,14 +33292,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119998336"/>
+        <c:crossAx val="61825408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119998336"/>
+        <c:axId val="61825408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.1"/>
@@ -33368,7 +33364,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119996416"/>
+        <c:crossAx val="61819136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -33446,9 +33442,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35562295670488486"/>
+          <c:x val="0.35562295670488492"/>
           <c:y val="6.2987016622922137E-2"/>
-          <c:w val="0.43890660808497556"/>
+          <c:w val="0.43890660808497567"/>
           <c:h val="0.11834326300139132"/>
         </c:manualLayout>
       </c:layout>
@@ -33487,8 +33483,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10924603700916362"/>
           <c:y val="0.17585114204444224"/>
-          <c:w val="0.88338297677569022"/>
-          <c:h val="0.81626291847339039"/>
+          <c:w val="0.88338297677569011"/>
+          <c:h val="0.8162629184733905"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -34326,11 +34322,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80349440"/>
-        <c:axId val="80355712"/>
+        <c:axId val="89973504"/>
+        <c:axId val="89975424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80349440"/>
+        <c:axId val="89973504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34371,14 +34367,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80355712"/>
+        <c:crossAx val="89975424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80355712"/>
+        <c:axId val="89975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -34406,13 +34402,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0"/>
-              <c:y val="0.59154485357380115"/>
+              <c:y val="0.59154485357380127"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80349440"/>
+        <c:crossAx val="89973504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -34440,9 +34436,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3587803937053789"/>
-          <c:y val="0.20690299439816418"/>
-          <c:w val="0.33231931604740578"/>
+          <c:x val="0.35878039370537895"/>
+          <c:y val="0.20690299439816423"/>
+          <c:w val="0.33231931604740589"/>
           <c:h val="1.742466654583778E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -34564,12 +34560,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="53219328"/>
-        <c:axId val="53221248"/>
+        <c:axId val="61532416"/>
+        <c:axId val="61866368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="53219328"/>
+        <c:axId val="61532416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34592,14 +34588,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53221248"/>
+        <c:crossAx val="61866368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53221248"/>
+        <c:axId val="61866368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34624,7 +34620,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53219328"/>
+        <c:crossAx val="61532416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -34738,12 +34734,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="54921472"/>
-        <c:axId val="54980992"/>
+        <c:axId val="61890944"/>
+        <c:axId val="61892864"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="54921472"/>
+        <c:axId val="61890944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34766,14 +34762,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54980992"/>
+        <c:crossAx val="61892864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54980992"/>
+        <c:axId val="61892864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34798,7 +34794,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54921472"/>
+        <c:crossAx val="61890944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35014,12 +35010,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="55150080"/>
-        <c:axId val="55152000"/>
+        <c:axId val="61918592"/>
+        <c:axId val="61924864"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="55150080"/>
+        <c:axId val="61918592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35042,14 +35038,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55152000"/>
+        <c:crossAx val="61924864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55152000"/>
+        <c:axId val="61924864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35074,7 +35070,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55150080"/>
+        <c:crossAx val="61918592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -48165,7 +48161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C6:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B34" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:J12"/>
     </sheetView>
   </sheetViews>
@@ -48190,7 +48186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView topLeftCell="D14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -50041,7 +50037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C49" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -57967,7 +57963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
@@ -62933,8 +62929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView topLeftCell="A189" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC201" sqref="AC201"/>
+    <sheetView topLeftCell="D172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U182" sqref="U182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/SandboxVDKD.xlsx
+++ b/SandboxVDKD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10590" windowHeight="13620" tabRatio="930" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10590" windowHeight="13620" tabRatio="930" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Kontur aussen F17Chr1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="Vergleich mit Zugfestigkeiten " sheetId="34" r:id="rId20"/>
     <sheet name="allKOntur" sheetId="35" r:id="rId21"/>
     <sheet name="FotomontageTAB" sheetId="36" r:id="rId22"/>
+    <sheet name="StandardabVergVorpr." sheetId="37" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="149">
   <si>
     <t>MP1a</t>
   </si>
@@ -374,24 +375,6 @@
     <t>Spalte5</t>
   </si>
   <si>
-    <t>Spalte6</t>
-  </si>
-  <si>
-    <t>Spalte7</t>
-  </si>
-  <si>
-    <t>Spalte8</t>
-  </si>
-  <si>
-    <t>Spalte9</t>
-  </si>
-  <si>
-    <t>Spalte10</t>
-  </si>
-  <si>
-    <t>Spalte11</t>
-  </si>
-  <si>
     <t>Nr.</t>
   </si>
   <si>
@@ -650,6 +633,9 @@
   </si>
   <si>
     <t>mit fehler</t>
+  </si>
+  <si>
+    <t>bieg</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1293,206 @@
     <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="95">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1960,94 +2145,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2063,7 +2160,9 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -2165,12 +2264,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="56996992"/>
-        <c:axId val="56999296"/>
+        <c:axId val="60122240"/>
+        <c:axId val="60124544"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="56996992"/>
+        <c:axId val="60122240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,17 +2290,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56999296"/>
+        <c:crossAx val="60124544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56999296"/>
+        <c:axId val="60124544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,16 +2323,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56996992"/>
+        <c:crossAx val="60122240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2436,12 +2538,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61092224"/>
-        <c:axId val="61094144"/>
+        <c:axId val="58179968"/>
+        <c:axId val="58181888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61092224"/>
+        <c:axId val="58179968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,14 +2566,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61094144"/>
+        <c:crossAx val="58181888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61094144"/>
+        <c:axId val="58181888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2598,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61092224"/>
+        <c:crossAx val="58179968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2539,7 +2641,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34048408325800039"/>
+          <c:x val="0.34048408325800061"/>
           <c:y val="1.290322580645162E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3989,11 +4091,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61150720"/>
-        <c:axId val="61152640"/>
+        <c:axId val="58365440"/>
+        <c:axId val="58367360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61150720"/>
+        <c:axId val="58365440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4016,14 +4118,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61152640"/>
+        <c:crossAx val="58367360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61152640"/>
+        <c:axId val="58367360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4048,7 +4150,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61150720"/>
+        <c:crossAx val="58365440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4072,7 +4174,9 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -4174,12 +4278,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61588224"/>
-        <c:axId val="61590144"/>
+        <c:axId val="60105472"/>
+        <c:axId val="60107392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61588224"/>
+        <c:axId val="60105472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4200,16 +4304,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61590144"/>
+        <c:crossAx val="60107392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61590144"/>
+        <c:axId val="60107392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4231,16 +4336,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61588224"/>
+        <c:crossAx val="60105472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4258,7 +4365,9 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -4360,12 +4469,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61598720"/>
-        <c:axId val="61691008"/>
+        <c:axId val="60136448"/>
+        <c:axId val="60150912"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61598720"/>
+        <c:axId val="60136448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4386,16 +4495,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61691008"/>
+        <c:crossAx val="60150912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61691008"/>
+        <c:axId val="60150912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4417,16 +4527,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61598720"/>
+        <c:crossAx val="60136448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4460,6 +4572,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -4654,12 +4767,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61720832"/>
-        <c:axId val="61604224"/>
+        <c:axId val="60180736"/>
+        <c:axId val="60187008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61720832"/>
+        <c:axId val="60180736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4680,16 +4793,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61604224"/>
+        <c:crossAx val="60187008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61604224"/>
+        <c:axId val="60187008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4711,16 +4825,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61720832"/>
+        <c:crossAx val="60180736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4948,12 +5064,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61634048"/>
-        <c:axId val="61635968"/>
+        <c:axId val="60212736"/>
+        <c:axId val="60214656"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61634048"/>
+        <c:axId val="60212736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,14 +5092,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61635968"/>
+        <c:crossAx val="60214656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61635968"/>
+        <c:axId val="60214656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5008,7 +5124,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61634048"/>
+        <c:crossAx val="60212736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6565,11 +6681,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62993536"/>
-        <c:axId val="62995456"/>
+        <c:axId val="61236352"/>
+        <c:axId val="61238272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62993536"/>
+        <c:axId val="61236352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6592,14 +6708,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62995456"/>
+        <c:crossAx val="61238272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62995456"/>
+        <c:axId val="61238272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6624,7 +6740,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62993536"/>
+        <c:crossAx val="61236352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6750,12 +6866,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63152512"/>
-        <c:axId val="63154432"/>
+        <c:axId val="63222144"/>
+        <c:axId val="63224064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63152512"/>
+        <c:axId val="63222144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6778,14 +6894,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63154432"/>
+        <c:crossAx val="63224064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63154432"/>
+        <c:axId val="63224064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6810,7 +6926,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63152512"/>
+        <c:crossAx val="63222144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6936,12 +7052,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63326848"/>
-        <c:axId val="63329024"/>
+        <c:axId val="64191104"/>
+        <c:axId val="64193280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63326848"/>
+        <c:axId val="64191104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6964,14 +7080,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63329024"/>
+        <c:crossAx val="64193280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63329024"/>
+        <c:axId val="64193280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6996,7 +7112,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63326848"/>
+        <c:crossAx val="64191104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7212,12 +7328,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63346560"/>
-        <c:axId val="63184896"/>
+        <c:axId val="64219008"/>
+        <c:axId val="64233472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63346560"/>
+        <c:axId val="64219008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7240,14 +7356,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63184896"/>
+        <c:crossAx val="64233472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63184896"/>
+        <c:axId val="64233472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7272,7 +7388,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63346560"/>
+        <c:crossAx val="64219008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7296,7 +7412,9 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -7398,12 +7516,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="60571648"/>
-        <c:axId val="60573568"/>
+        <c:axId val="74068736"/>
+        <c:axId val="74569216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60571648"/>
+        <c:axId val="74068736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7424,17 +7542,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60573568"/>
+        <c:crossAx val="74569216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60573568"/>
+        <c:axId val="74569216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7456,16 +7575,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60571648"/>
+        <c:crossAx val="74068736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7669,12 +7790,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63227008"/>
-        <c:axId val="63228928"/>
+        <c:axId val="64271488"/>
+        <c:axId val="64273408"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63227008"/>
+        <c:axId val="64271488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7697,14 +7818,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63228928"/>
+        <c:crossAx val="64273408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63228928"/>
+        <c:axId val="64273408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7729,7 +7850,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63227008"/>
+        <c:crossAx val="64271488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9232,11 +9353,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63468288"/>
-        <c:axId val="63470208"/>
+        <c:axId val="64766720"/>
+        <c:axId val="64768640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63468288"/>
+        <c:axId val="64766720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9259,14 +9380,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63470208"/>
+        <c:crossAx val="64768640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63470208"/>
+        <c:axId val="64768640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9291,7 +9412,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63468288"/>
+        <c:crossAx val="64766720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9627,12 +9748,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63653376"/>
-        <c:axId val="63655296"/>
+        <c:axId val="65082880"/>
+        <c:axId val="65084800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63653376"/>
+        <c:axId val="65082880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9655,14 +9776,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63655296"/>
+        <c:crossAx val="65084800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63655296"/>
+        <c:axId val="65084800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9687,7 +9808,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63653376"/>
+        <c:crossAx val="65082880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10013,12 +10134,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63694336"/>
-        <c:axId val="63696256"/>
+        <c:axId val="65115648"/>
+        <c:axId val="65117568"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63694336"/>
+        <c:axId val="65115648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10041,14 +10162,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63696256"/>
+        <c:crossAx val="65117568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63696256"/>
+        <c:axId val="65117568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10073,7 +10194,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63694336"/>
+        <c:crossAx val="65115648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10102,7 +10223,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10380985519199587"/>
+          <c:x val="0.10380985519199584"/>
           <c:y val="2.0090599786137843E-2"/>
           <c:w val="0.69093100678290831"/>
           <c:h val="0.79508091118239854"/>
@@ -10435,11 +10556,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63632128"/>
-        <c:axId val="63634432"/>
+        <c:axId val="65262336"/>
+        <c:axId val="65264640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63632128"/>
+        <c:axId val="65262336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10466,14 +10587,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63634432"/>
+        <c:crossAx val="65264640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63634432"/>
+        <c:axId val="65264640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10505,7 +10626,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63632128"/>
+        <c:crossAx val="65262336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10646,12 +10767,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63729024"/>
-        <c:axId val="63800832"/>
+        <c:axId val="74083712"/>
+        <c:axId val="74851840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63729024"/>
+        <c:axId val="74083712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10674,14 +10795,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63800832"/>
+        <c:crossAx val="74851840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63800832"/>
+        <c:axId val="74851840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10706,7 +10827,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63729024"/>
+        <c:crossAx val="74083712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10854,12 +10975,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63813504"/>
-        <c:axId val="65142784"/>
+        <c:axId val="74876800"/>
+        <c:axId val="74903552"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63813504"/>
+        <c:axId val="74876800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10882,14 +11003,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65142784"/>
+        <c:crossAx val="74903552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65142784"/>
+        <c:axId val="74903552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10914,7 +11035,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63813504"/>
+        <c:crossAx val="74876800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11204,12 +11325,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65189760"/>
-        <c:axId val="65200128"/>
+        <c:axId val="74999680"/>
+        <c:axId val="75005952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65189760"/>
+        <c:axId val="74999680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11232,14 +11353,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65200128"/>
+        <c:crossAx val="75005952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65200128"/>
+        <c:axId val="75005952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11264,7 +11385,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65189760"/>
+        <c:crossAx val="74999680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11554,12 +11675,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65234816"/>
-        <c:axId val="65249280"/>
+        <c:axId val="75327360"/>
+        <c:axId val="75333632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65234816"/>
+        <c:axId val="75327360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11582,14 +11703,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65249280"/>
+        <c:crossAx val="75333632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65249280"/>
+        <c:axId val="75333632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11614,7 +11735,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65234816"/>
+        <c:crossAx val="75327360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11663,7 +11784,7 @@
           <c:x val="7.4558952075056473E-2"/>
           <c:y val="8.9218171358717152E-2"/>
           <c:w val="0.77271636572474856"/>
-          <c:h val="0.84410365656349307"/>
+          <c:h val="0.84410365656349373"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -13289,11 +13410,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65731584"/>
-        <c:axId val="65348736"/>
+        <c:axId val="75430912"/>
+        <c:axId val="75523200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65731584"/>
+        <c:axId val="75430912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13316,14 +13437,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65348736"/>
+        <c:crossAx val="75523200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65348736"/>
+        <c:axId val="75523200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13348,7 +13469,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65731584"/>
+        <c:crossAx val="75430912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13388,6 +13509,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -13582,12 +13704,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="60582912"/>
-        <c:axId val="60617856"/>
+        <c:axId val="56105600"/>
+        <c:axId val="56120064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60582912"/>
+        <c:axId val="56105600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13608,16 +13730,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60617856"/>
+        <c:crossAx val="56120064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60617856"/>
+        <c:axId val="56120064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13639,16 +13762,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60582912"/>
+        <c:crossAx val="56105600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -14006,8 +14131,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="66353792"/>
-        <c:axId val="66360064"/>
+        <c:axId val="76548736"/>
+        <c:axId val="76563200"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -14316,11 +14441,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="66372352"/>
-        <c:axId val="66361984"/>
+        <c:axId val="76567296"/>
+        <c:axId val="76565120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66353792"/>
+        <c:axId val="76548736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14343,12 +14468,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66360064"/>
+        <c:crossAx val="76563200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66360064"/>
+        <c:axId val="76563200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14373,12 +14498,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66353792"/>
+        <c:crossAx val="76548736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66361984"/>
+        <c:axId val="76565120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14402,19 +14527,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66372352"/>
+        <c:crossAx val="76567296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66372352"/>
+        <c:axId val="76567296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="66361984"/>
+        <c:crossAx val="76565120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14771,8 +14896,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65971328"/>
-        <c:axId val="65973632"/>
+        <c:axId val="76977280"/>
+        <c:axId val="76979584"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15101,11 +15226,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65989632"/>
-        <c:axId val="65988096"/>
+        <c:axId val="76999680"/>
+        <c:axId val="76998144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65971328"/>
+        <c:axId val="76977280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15128,14 +15253,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65973632"/>
+        <c:crossAx val="76979584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65973632"/>
+        <c:axId val="76979584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15159,31 +15284,31 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65971328"/>
+        <c:crossAx val="76977280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65988096"/>
+        <c:axId val="76998144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65989632"/>
+        <c:crossAx val="76999680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="65989632"/>
+        <c:axId val="76999680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="65988096"/>
+        <c:crossAx val="76998144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15215,9 +15340,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12353484934259892"/>
-          <c:y val="2.0639806072499229E-2"/>
-          <c:w val="0.71435399410857714"/>
-          <c:h val="0.81202885023956428"/>
+          <c:y val="2.0639806072499246E-2"/>
+          <c:w val="0.71435399410857736"/>
+          <c:h val="0.81202885023956473"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -15526,11 +15651,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66535424"/>
-        <c:axId val="66537728"/>
+        <c:axId val="77619200"/>
+        <c:axId val="77621504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66535424"/>
+        <c:axId val="77619200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15553,14 +15678,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66537728"/>
+        <c:crossAx val="77621504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66537728"/>
+        <c:axId val="77621504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15585,7 +15710,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66535424"/>
+        <c:crossAx val="77619200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15936,8 +16061,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66695552"/>
-        <c:axId val="66697472"/>
+        <c:axId val="77693312"/>
+        <c:axId val="77695232"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16251,11 +16376,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66709760"/>
-        <c:axId val="66707840"/>
+        <c:axId val="77703424"/>
+        <c:axId val="77701504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66695552"/>
+        <c:axId val="77693312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16292,14 +16417,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66697472"/>
+        <c:crossAx val="77695232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66697472"/>
+        <c:axId val="77695232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16333,12 +16458,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66695552"/>
+        <c:crossAx val="77693312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66707840"/>
+        <c:axId val="77701504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16372,19 +16497,19 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66709760"/>
+        <c:crossAx val="77703424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="66709760"/>
+        <c:axId val="77703424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="66707840"/>
+        <c:crossAx val="77701504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16640,8 +16765,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66609536"/>
-        <c:axId val="66611456"/>
+        <c:axId val="77750656"/>
+        <c:axId val="77752576"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16852,11 +16977,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66639744"/>
-        <c:axId val="66638208"/>
+        <c:axId val="77760384"/>
+        <c:axId val="77758848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66609536"/>
+        <c:axId val="77750656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16879,14 +17004,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66611456"/>
+        <c:crossAx val="77752576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66611456"/>
+        <c:axId val="77752576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16911,31 +17036,31 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66609536"/>
+        <c:crossAx val="77750656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66638208"/>
+        <c:axId val="77758848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66639744"/>
+        <c:crossAx val="77760384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="66639744"/>
+        <c:axId val="77760384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="66638208"/>
+        <c:crossAx val="77758848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17555,11 +17680,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66806912"/>
-        <c:axId val="66808832"/>
+        <c:axId val="77816960"/>
+        <c:axId val="77818880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66806912"/>
+        <c:axId val="77816960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17585,7 +17710,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.45109582125147935"/>
-              <c:y val="0.77970486563789299"/>
+              <c:y val="0.77970486563789343"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -17600,14 +17725,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66808832"/>
+        <c:crossAx val="77818880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66808832"/>
+        <c:axId val="77818880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17641,7 +17766,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66806912"/>
+        <c:crossAx val="77816960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17652,9 +17777,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35340905336797124"/>
+          <c:x val="0.3534090533679714"/>
           <c:y val="0.15285974214954323"/>
-          <c:w val="0.26010869590547392"/>
+          <c:w val="0.26010869590547403"/>
           <c:h val="9.7789125328347729E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -17701,9 +17826,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.3395436009228137E-2"/>
+          <c:x val="5.3395436009228171E-2"/>
           <c:y val="5.0756563231014573E-2"/>
-          <c:w val="0.74661457030428002"/>
+          <c:w val="0.74661457030428025"/>
           <c:h val="0.9300077561226836"/>
         </c:manualLayout>
       </c:layout>
@@ -18301,31 +18426,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66859776"/>
-        <c:axId val="66861312"/>
+        <c:axId val="77927168"/>
+        <c:axId val="77928704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66859776"/>
+        <c:axId val="77927168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66861312"/>
+        <c:crossAx val="77928704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66861312"/>
+        <c:axId val="77928704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66859776"/>
+        <c:crossAx val="77927168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18337,7 +18462,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18943,11 +19068,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66720896"/>
-        <c:axId val="66722816"/>
+        <c:axId val="78513280"/>
+        <c:axId val="78515200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66720896"/>
+        <c:axId val="78513280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18977,7 +19102,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.43201753082751448"/>
-              <c:y val="0.80099473030987423"/>
+              <c:y val="0.80099473030987467"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -18994,14 +19119,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66722816"/>
+        <c:crossAx val="78515200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66722816"/>
+        <c:axId val="78515200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19030,7 +19155,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7434838298631026E-2"/>
+              <c:x val="2.7434838298631033E-2"/>
               <c:y val="0.22494496327493946"/>
             </c:manualLayout>
           </c:layout>
@@ -19049,7 +19174,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66720896"/>
+        <c:crossAx val="78513280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -19064,7 +19189,7 @@
           <c:x val="0.40310371580910881"/>
           <c:y val="0.12500152597204417"/>
           <c:w val="0.26565938691625812"/>
-          <c:h val="0.14017762314594392"/>
+          <c:h val="0.14017762314594387"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -19084,7 +19209,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -19487,25 +19612,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67019520"/>
-        <c:axId val="67021056"/>
+        <c:axId val="78631680"/>
+        <c:axId val="78633216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67019520"/>
+        <c:axId val="78631680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67021056"/>
+        <c:crossAx val="78633216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67021056"/>
+        <c:axId val="78633216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19513,13 +19638,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67019520"/>
+        <c:crossAx val="78631680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -21161,24 +21287,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68117248"/>
-        <c:axId val="68118784"/>
+        <c:axId val="78766848"/>
+        <c:axId val="78768384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68117248"/>
+        <c:axId val="78766848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68118784"/>
+        <c:crossAx val="78768384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68118784"/>
+        <c:axId val="78768384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21186,7 +21312,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68117248"/>
+        <c:crossAx val="78766848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21420,12 +21546,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="60647680"/>
-        <c:axId val="60666240"/>
+        <c:axId val="56129408"/>
+        <c:axId val="56143872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60647680"/>
+        <c:axId val="56129408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21448,14 +21574,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60666240"/>
+        <c:crossAx val="56143872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60666240"/>
+        <c:axId val="56143872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21480,7 +21606,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60647680"/>
+        <c:crossAx val="56129408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21832,25 +21958,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68273280"/>
-        <c:axId val="68274816"/>
+        <c:axId val="79021184"/>
+        <c:axId val="79022720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68273280"/>
+        <c:axId val="79021184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68274816"/>
+        <c:crossAx val="79022720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68274816"/>
+        <c:axId val="79022720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21858,7 +21984,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68273280"/>
+        <c:crossAx val="79021184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22210,25 +22336,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68576000"/>
-        <c:axId val="68577536"/>
+        <c:axId val="74613504"/>
+        <c:axId val="74615040"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68576000"/>
+        <c:axId val="74613504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68577536"/>
+        <c:crossAx val="74615040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68577536"/>
+        <c:axId val="74615040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22236,7 +22362,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68576000"/>
+        <c:crossAx val="74613504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23654,24 +23780,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68621056"/>
-        <c:axId val="68622592"/>
+        <c:axId val="74674944"/>
+        <c:axId val="74676480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68621056"/>
+        <c:axId val="74674944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68622592"/>
+        <c:crossAx val="74676480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68622592"/>
+        <c:axId val="74676480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23679,7 +23805,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68621056"/>
+        <c:crossAx val="74674944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23693,7 +23819,7 @@
           <c:x val="0.74749912510936123"/>
           <c:y val="0.16011774569845438"/>
           <c:w val="0.25250087489063888"/>
-          <c:h val="0.83717191601051033"/>
+          <c:h val="0.83717191601051077"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -23728,6 +23854,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -24194,24 +24321,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69935104"/>
-        <c:axId val="69936640"/>
+        <c:axId val="75050368"/>
+        <c:axId val="75064448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69935104"/>
+        <c:axId val="75050368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69936640"/>
+        <c:crossAx val="75064448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69936640"/>
+        <c:axId val="75064448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24219,13 +24346,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69935104"/>
+        <c:crossAx val="75050368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -24270,6 +24398,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -24552,24 +24681,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69986944"/>
-        <c:axId val="69992832"/>
+        <c:axId val="75086080"/>
+        <c:axId val="75104256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69986944"/>
+        <c:axId val="75086080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69992832"/>
+        <c:crossAx val="75104256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69992832"/>
+        <c:axId val="75104256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24577,13 +24706,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69986944"/>
+        <c:crossAx val="75086080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -24897,24 +25027,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70230784"/>
-        <c:axId val="70232320"/>
+        <c:axId val="75481472"/>
+        <c:axId val="75483008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70230784"/>
+        <c:axId val="75481472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70232320"/>
+        <c:crossAx val="75483008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70232320"/>
+        <c:axId val="75483008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24922,7 +25052,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70230784"/>
+        <c:crossAx val="75481472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25034,7 +25164,7 @@
                   <c:v>5.5250625145308513E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6944180805158412E-2</c:v>
+                  <c:v>1.6944180805158422E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.6969768650335613E-2</c:v>
@@ -25123,7 +25253,7 @@
                   <c:v>6.6062171674232714E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15830932412610299</c:v>
+                  <c:v>0.15830932412610307</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.4608937423083798E-2</c:v>
@@ -25132,13 +25262,13 @@
                   <c:v>3.8644806282753852E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5021043774770043E-2</c:v>
+                  <c:v>2.5021043774770057E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.2182817926554538E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9894458366193708E-2</c:v>
+                  <c:v>1.9894458366193715E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.1121629988015713E-2</c:v>
@@ -25209,7 +25339,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.15118479455706996</c:v>
+                  <c:v>0.15118479455707001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.7766596212442584E-2</c:v>
@@ -25218,13 +25348,13 @@
                   <c:v>3.3324560249003474E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3330200448672775E-3</c:v>
+                  <c:v>9.3330200448672809E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6693837501494849E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9221698265515806E-2</c:v>
+                  <c:v>1.922169826551582E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.5423836644690781E-2</c:v>
@@ -25236,30 +25366,30 @@
                   <c:v>5.6501047964198282E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10868956275848983</c:v>
+                  <c:v>0.10868956275848989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70253952"/>
-        <c:axId val="70263936"/>
+        <c:axId val="75496448"/>
+        <c:axId val="76624640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70253952"/>
+        <c:axId val="75496448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70263936"/>
+        <c:crossAx val="76624640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70263936"/>
+        <c:axId val="76624640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25267,7 +25397,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70253952"/>
+        <c:crossAx val="75496448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25297,8 +25427,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10924603700916362"/>
           <c:y val="1.7214596341716463E-2"/>
-          <c:w val="0.88338297677568955"/>
-          <c:h val="0.92882998851373277"/>
+          <c:w val="0.88338297677568933"/>
+          <c:h val="0.928829988513733"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -26092,11 +26222,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70428928"/>
-        <c:axId val="70435200"/>
+        <c:axId val="75876224"/>
+        <c:axId val="75882496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70428928"/>
+        <c:axId val="75876224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26121,7 +26251,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.38733697964077102"/>
+              <c:x val="0.3873369796407713"/>
               <c:y val="0.93102214875889044"/>
             </c:manualLayout>
           </c:layout>
@@ -26137,14 +26267,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70435200"/>
+        <c:crossAx val="75882496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70435200"/>
+        <c:axId val="75882496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -26178,7 +26308,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70428928"/>
+        <c:crossAx val="75876224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -26190,9 +26320,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33000341094105495"/>
-          <c:y val="5.0193931097422081E-2"/>
-          <c:w val="0.33231931604740644"/>
+          <c:x val="0.33000341094105506"/>
+          <c:y val="5.0193931097422116E-2"/>
+          <c:w val="0.33231931604740667"/>
           <c:h val="1.742466654583778E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -26229,7 +26359,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14684735691344006"/>
+          <c:x val="0.14684735691344011"/>
           <c:y val="0.4076252298407248"/>
           <c:w val="0.73566113191882565"/>
           <c:h val="0.52109168886236656"/>
@@ -27070,11 +27200,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70384640"/>
-        <c:axId val="79111296"/>
+        <c:axId val="76741248"/>
+        <c:axId val="76817152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70384640"/>
+        <c:axId val="76741248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27115,14 +27245,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79111296"/>
+        <c:crossAx val="76817152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79111296"/>
+        <c:axId val="76817152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -27148,7 +27278,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70384640"/>
+        <c:crossAx val="76741248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -27176,9 +27306,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29547103162386545"/>
+          <c:x val="0.29547103162386557"/>
           <c:y val="0.44945454369035681"/>
-          <c:w val="0.33231931604740655"/>
+          <c:w val="0.33231931604740678"/>
           <c:h val="1.742466654583778E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -28012,11 +28142,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79177984"/>
-        <c:axId val="79184256"/>
+        <c:axId val="76867456"/>
+        <c:axId val="76886016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79177984"/>
+        <c:axId val="76867456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28045,8 +28175,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43153000611765646"/>
-              <c:y val="0.86933107657634434"/>
+              <c:x val="0.43153000611765657"/>
+              <c:y val="0.86933107657634456"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -28063,7 +28193,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79184256"/>
+        <c:crossAx val="76886016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28071,7 +28201,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79184256"/>
+        <c:axId val="76886016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28096,7 +28226,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -28112,7 +28241,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79177984"/>
+        <c:crossAx val="76867456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -28124,10 +28253,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34292679715976027"/>
+          <c:x val="0.3429267971597606"/>
           <c:y val="0.13362513233438106"/>
           <c:w val="0.2850773825685583"/>
-          <c:h val="0.23274964899336095"/>
+          <c:h val="0.23274964899336101"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -28147,7 +28276,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -29199,11 +29328,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60775808"/>
-        <c:axId val="60790272"/>
+        <c:axId val="56282112"/>
+        <c:axId val="56288384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60775808"/>
+        <c:axId val="56282112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29226,14 +29355,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60790272"/>
+        <c:crossAx val="56288384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60790272"/>
+        <c:axId val="56288384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29258,7 +29387,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60775808"/>
+        <c:crossAx val="56282112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29604,8 +29733,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66929024"/>
-        <c:axId val="66930944"/>
+        <c:axId val="64368640"/>
+        <c:axId val="64370560"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -29919,11 +30048,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66943232"/>
-        <c:axId val="66941312"/>
+        <c:axId val="64374656"/>
+        <c:axId val="64372736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66929024"/>
+        <c:axId val="64368640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29946,14 +30075,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66930944"/>
+        <c:crossAx val="64370560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66930944"/>
+        <c:axId val="64370560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29978,12 +30107,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66929024"/>
+        <c:crossAx val="64368640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66941312"/>
+        <c:axId val="64372736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30007,19 +30136,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66943232"/>
+        <c:crossAx val="64374656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="66943232"/>
+        <c:axId val="64374656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="66941312"/>
+        <c:crossAx val="64372736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30352,8 +30481,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66976384"/>
-        <c:axId val="70152960"/>
+        <c:axId val="77277440"/>
+        <c:axId val="77283712"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -30667,11 +30796,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70161152"/>
-        <c:axId val="70154880"/>
+        <c:axId val="77291904"/>
+        <c:axId val="77285632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66976384"/>
+        <c:axId val="77277440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30694,14 +30823,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70152960"/>
+        <c:crossAx val="77283712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70152960"/>
+        <c:axId val="77283712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30726,12 +30855,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66976384"/>
+        <c:crossAx val="77277440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70154880"/>
+        <c:axId val="77285632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30755,19 +30884,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70161152"/>
+        <c:crossAx val="77291904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="70161152"/>
+        <c:axId val="77291904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="70154880"/>
+        <c:crossAx val="77285632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30797,7 +30926,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.3396485550543766E-2"/>
+          <c:x val="6.3396485550543807E-2"/>
           <c:y val="5.6949671741960639E-2"/>
           <c:w val="0.9361008392992417"/>
           <c:h val="0.8721337816857776"/>
@@ -31082,24 +31211,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79611392"/>
-        <c:axId val="79612928"/>
+        <c:axId val="78034048"/>
+        <c:axId val="78035584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79611392"/>
+        <c:axId val="78034048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79612928"/>
+        <c:crossAx val="78035584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79612928"/>
+        <c:axId val="78035584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31107,14 +31236,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79611392"/>
+        <c:crossAx val="78034048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -31319,24 +31447,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79703040"/>
-        <c:axId val="79721216"/>
+        <c:axId val="78457472"/>
+        <c:axId val="78463360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79703040"/>
+        <c:axId val="78457472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79721216"/>
+        <c:crossAx val="78463360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79721216"/>
+        <c:axId val="78463360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31344,14 +31472,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79703040"/>
+        <c:crossAx val="78457472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -31375,7 +31502,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.10924603700916362"/>
           <c:y val="0.17585114204444224"/>
-          <c:w val="0.88338297677568933"/>
+          <c:w val="0.88338297677568911"/>
           <c:h val="0.81626291847339061"/>
         </c:manualLayout>
       </c:layout>
@@ -32214,11 +32341,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80896768"/>
-        <c:axId val="80898688"/>
+        <c:axId val="79507840"/>
+        <c:axId val="79509760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80896768"/>
+        <c:axId val="79507840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32259,14 +32386,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80898688"/>
+        <c:crossAx val="79509760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80898688"/>
+        <c:axId val="79509760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -32294,13 +32421,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0"/>
-              <c:y val="0.59154485357380227"/>
+              <c:y val="0.59154485357380271"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80896768"/>
+        <c:crossAx val="79507840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -32328,9 +32455,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3587803937053794"/>
-          <c:y val="0.20690299439816445"/>
-          <c:w val="0.33231931604740667"/>
+          <c:x val="0.35878039370537951"/>
+          <c:y val="0.20690299439816451"/>
+          <c:w val="0.33231931604740689"/>
           <c:h val="1.742466654583778E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -32368,9 +32495,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1746455624383377"/>
-          <c:y val="9.7995802522824922E-3"/>
+          <c:y val="9.7995802522824992E-3"/>
           <c:w val="0.81321027365163812"/>
-          <c:h val="0.96601690995921496"/>
+          <c:h val="0.96601690995921463"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -33000,11 +33127,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60936192"/>
-        <c:axId val="60938112"/>
+        <c:axId val="56905088"/>
+        <c:axId val="56931840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60936192"/>
+        <c:axId val="56905088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33051,14 +33178,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60938112"/>
+        <c:crossAx val="56931840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60938112"/>
+        <c:axId val="56931840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.1"/>
@@ -33123,7 +33250,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60936192"/>
+        <c:crossAx val="56905088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -33201,9 +33328,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35562295670488547"/>
+          <c:x val="0.35562295670488564"/>
           <c:y val="6.2987016622922137E-2"/>
-          <c:w val="0.43890660808497645"/>
+          <c:w val="0.43890660808497667"/>
           <c:h val="0.11834326300139132"/>
         </c:manualLayout>
       </c:layout>
@@ -33325,12 +33452,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="60977152"/>
-        <c:axId val="60979072"/>
+        <c:axId val="57666944"/>
+        <c:axId val="57755136"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60977152"/>
+        <c:axId val="57666944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33353,14 +33480,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60979072"/>
+        <c:crossAx val="57755136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60979072"/>
+        <c:axId val="57755136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33385,7 +33512,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60977152"/>
+        <c:crossAx val="57666944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33499,12 +33626,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61003648"/>
-        <c:axId val="61009920"/>
+        <c:axId val="57825152"/>
+        <c:axId val="57860096"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61003648"/>
+        <c:axId val="57825152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33527,14 +33654,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61009920"/>
+        <c:crossAx val="57860096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61009920"/>
+        <c:axId val="57860096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33559,7 +33686,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61003648"/>
+        <c:crossAx val="57825152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33775,12 +33902,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61043840"/>
-        <c:axId val="61045760"/>
+        <c:axId val="58131584"/>
+        <c:axId val="58133504"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61043840"/>
+        <c:axId val="58131584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33803,14 +33930,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61045760"/>
+        <c:crossAx val="58133504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61045760"/>
+        <c:axId val="58133504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33835,7 +33962,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61043840"/>
+        <c:crossAx val="58131584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35710,23 +35837,83 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle14" displayName="Tabelle14" ref="C12:M33" totalsRowCount="1">
   <autoFilter ref="C12:M32"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Spalte1" totalsRowLabel="Mittelwert" totalsRowDxfId="85"/>
-    <tableColumn id="2" name="Spalte2" totalsRowFunction="average" totalsRowDxfId="84"/>
-    <tableColumn id="3" name="Spalte3" totalsRowFunction="average" totalsRowDxfId="83"/>
-    <tableColumn id="4" name="Spalte4" totalsRowFunction="average" totalsRowDxfId="82"/>
-    <tableColumn id="5" name="Spalte5" totalsRowFunction="average" totalsRowDxfId="81"/>
-    <tableColumn id="6" name="Spalte6" totalsRowFunction="average" totalsRowDxfId="80"/>
-    <tableColumn id="12" name="Spalte7" totalsRowFunction="average" totalsRowDxfId="79"/>
-    <tableColumn id="7" name="Spalte8" totalsRowFunction="average" totalsRowDxfId="78"/>
-    <tableColumn id="8" name="Spalte9" totalsRowFunction="average" totalsRowDxfId="77"/>
-    <tableColumn id="9" name="Spalte10" totalsRowFunction="average" totalsRowDxfId="76"/>
-    <tableColumn id="10" name="Spalte11" totalsRowFunction="average" totalsRowDxfId="75"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Mittelwert" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="MP1" totalsRowFunction="average" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="MP2" totalsRowFunction="average" totalsRowDxfId="17"/>
+    <tableColumn id="4" name="MP3" totalsRowFunction="average" totalsRowDxfId="16"/>
+    <tableColumn id="5" name="MP4" totalsRowFunction="average" totalsRowDxfId="15"/>
+    <tableColumn id="6" name="MP5" totalsRowFunction="average" totalsRowDxfId="14"/>
+    <tableColumn id="12" name="MP6" totalsRowFunction="average" totalsRowDxfId="13"/>
+    <tableColumn id="7" name="MP7" totalsRowFunction="average" totalsRowDxfId="12"/>
+    <tableColumn id="8" name="MP8" totalsRowFunction="average" totalsRowDxfId="11"/>
+    <tableColumn id="9" name="MP9" totalsRowFunction="average" totalsRowDxfId="10"/>
+    <tableColumn id="10" name="MP10" totalsRowFunction="average" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabelle25" displayName="Tabelle25" ref="D6:N26" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="D6:N26"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr/MP"/>
+    <tableColumn id="2" name="MP1a"/>
+    <tableColumn id="3" name="MP2a"/>
+    <tableColumn id="4" name="MP3a"/>
+    <tableColumn id="5" name="MP4a"/>
+    <tableColumn id="6" name="MP5a"/>
+    <tableColumn id="7" name="MP6a"/>
+    <tableColumn id="8" name="MP7a"/>
+    <tableColumn id="9" name="MP8a"/>
+    <tableColumn id="10" name="MP9a"/>
+    <tableColumn id="11" name="MP10a"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle22" displayName="Tabelle22" ref="C6:M26" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="C6:M26"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr/MP"/>
+    <tableColumn id="2" name="MP1a"/>
+    <tableColumn id="3" name="MP2a"/>
+    <tableColumn id="4" name="MP3a"/>
+    <tableColumn id="5" name="MP4a"/>
+    <tableColumn id="6" name="MP5a"/>
+    <tableColumn id="7" name="MP6a"/>
+    <tableColumn id="8" name="MP7a"/>
+    <tableColumn id="9" name="MP8a"/>
+    <tableColumn id="10" name="MP9a"/>
+    <tableColumn id="11" name="MP10a"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabelle23" displayName="Tabelle23" ref="D5:N25" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="D5:N25"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr/MP"/>
+    <tableColumn id="2" name="MP1a"/>
+    <tableColumn id="3" name="MP2a"/>
+    <tableColumn id="4" name="MP3a"/>
+    <tableColumn id="5" name="MP4a"/>
+    <tableColumn id="6" name="MP5a"/>
+    <tableColumn id="7" name="MP6a"/>
+    <tableColumn id="8" name="MP7a"/>
+    <tableColumn id="9" name="MP8a"/>
+    <tableColumn id="10" name="MP9a"/>
+    <tableColumn id="11" name="MP10a"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C3:M32" totalsRowCount="1">
   <autoFilter ref="C3:M31"/>
   <tableColumns count="11">
@@ -35746,8 +35933,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D6:N32" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D6:N32" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="D6:N32"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr/MP"/>
@@ -35766,8 +35953,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="B71:L93" totalsRowShown="0" headerRowDxfId="33">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="B71:L93" totalsRowShown="0" headerRowDxfId="53">
   <autoFilter ref="B71:L93"/>
   <tableColumns count="11">
     <tableColumn id="1" name="MP/Nr"/>
@@ -35786,7 +35973,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabelle10" displayName="Tabelle10" ref="N57:R66" totalsRowShown="0">
   <autoFilter ref="N57:R66">
     <filterColumn colId="4"/>
@@ -35802,7 +35989,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabelle11" displayName="Tabelle11" ref="G86:J89" totalsRowShown="0">
   <autoFilter ref="G86:J89"/>
   <tableColumns count="4">
@@ -35815,7 +36002,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle12" displayName="Tabelle12" ref="M85:R88" totalsRowShown="0">
   <autoFilter ref="M85:R88"/>
   <tableColumns count="6">
@@ -35830,7 +36017,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle13" displayName="Tabelle13" ref="G92:I95" totalsRowShown="0">
   <autoFilter ref="G92:I95"/>
   <tableColumns count="3">
@@ -35842,7 +36029,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle1416" displayName="Tabelle1416" ref="C7:K28" totalsRowCount="1">
+  <autoFilter ref="C7:K27"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="94"/>
+    <tableColumn id="3" name="MP2b" totalsRowFunction="average" totalsRowDxfId="93"/>
+    <tableColumn id="4" name="MP3b" totalsRowFunction="average" totalsRowDxfId="92"/>
+    <tableColumn id="5" name="MP4b" totalsRowFunction="average" totalsRowDxfId="91"/>
+    <tableColumn id="6" name="MP5b" totalsRowFunction="average" totalsRowDxfId="90"/>
+    <tableColumn id="12" name="MP6b" totalsRowFunction="average" totalsRowDxfId="89"/>
+    <tableColumn id="7" name="MP7b" totalsRowFunction="average" totalsRowDxfId="88"/>
+    <tableColumn id="8" name="MP8b" totalsRowFunction="average" totalsRowDxfId="87"/>
+    <tableColumn id="9" name="MP9b" totalsRowFunction="average" totalsRowDxfId="86"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle1221" displayName="Tabelle1221" ref="C97:H100" totalsRowShown="0">
   <autoFilter ref="C97:H100"/>
   <tableColumns count="6">
@@ -35857,7 +36062,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle1322" displayName="Tabelle1322" ref="I97:K100" totalsRowShown="0">
   <autoFilter ref="I97:K100"/>
   <tableColumns count="3">
@@ -35869,39 +36074,39 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="C4:M45" totalsRowCount="1">
   <autoFilter ref="C4:M44"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nr" totalsRowLabel="s" totalsRowDxfId="32"/>
-    <tableColumn id="2" name="MP1" totalsRowFunction="custom" totalsRowDxfId="31">
+    <tableColumn id="1" name="Nr" totalsRowLabel="s" totalsRowDxfId="52"/>
+    <tableColumn id="2" name="MP1" totalsRowFunction="custom" totalsRowDxfId="51">
       <totalsRowFormula>STDEV(D5:D44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="MP2" totalsRowFunction="custom" totalsRowDxfId="30">
+    <tableColumn id="3" name="MP2" totalsRowFunction="custom" totalsRowDxfId="50">
       <totalsRowFormula>STDEV(E5:E44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="MP3" totalsRowFunction="custom" totalsRowDxfId="29">
+    <tableColumn id="4" name="MP3" totalsRowFunction="custom" totalsRowDxfId="49">
       <totalsRowFormula>STDEV(F5:F44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="MP4" totalsRowFunction="custom" totalsRowDxfId="28">
+    <tableColumn id="5" name="MP4" totalsRowFunction="custom" totalsRowDxfId="48">
       <totalsRowFormula>STDEV(G5:G44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="MP5" totalsRowFunction="custom" totalsRowDxfId="27">
+    <tableColumn id="6" name="MP5" totalsRowFunction="custom" totalsRowDxfId="47">
       <totalsRowFormula>STDEV(H5:H44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="MP6" totalsRowFunction="custom" totalsRowDxfId="26">
+    <tableColumn id="7" name="MP6" totalsRowFunction="custom" totalsRowDxfId="46">
       <totalsRowFormula>STDEV(I5:I44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="MP7" totalsRowFunction="custom" totalsRowDxfId="25">
+    <tableColumn id="8" name="MP7" totalsRowFunction="custom" totalsRowDxfId="45">
       <totalsRowFormula>STDEV(J5:J44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="MP8" totalsRowFunction="custom" totalsRowDxfId="24">
+    <tableColumn id="9" name="MP8" totalsRowFunction="custom" totalsRowDxfId="44">
       <totalsRowFormula>STDEV(K5:K44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="MP9" totalsRowFunction="custom" totalsRowDxfId="23">
+    <tableColumn id="10" name="MP9" totalsRowFunction="custom" totalsRowDxfId="43">
       <totalsRowFormula>STDEV(L5:L44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="MP10" totalsRowFunction="custom" totalsRowDxfId="22">
+    <tableColumn id="11" name="MP10" totalsRowFunction="custom" totalsRowDxfId="42">
       <totalsRowFormula>STDEV(M5:M44)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -35909,57 +36114,39 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle1416" displayName="Tabelle1416" ref="C7:K28" totalsRowCount="1">
-  <autoFilter ref="C7:K27"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="74"/>
-    <tableColumn id="3" name="MP2b" totalsRowFunction="average" totalsRowDxfId="73"/>
-    <tableColumn id="4" name="MP3b" totalsRowFunction="average" totalsRowDxfId="72"/>
-    <tableColumn id="5" name="MP4b" totalsRowFunction="average" totalsRowDxfId="71"/>
-    <tableColumn id="6" name="MP5b" totalsRowFunction="average" totalsRowDxfId="70"/>
-    <tableColumn id="12" name="MP6b" totalsRowFunction="average" totalsRowDxfId="69"/>
-    <tableColumn id="7" name="MP7b" totalsRowFunction="average" totalsRowDxfId="68"/>
-    <tableColumn id="8" name="MP8b" totalsRowFunction="average" totalsRowDxfId="67"/>
-    <tableColumn id="9" name="MP9b" totalsRowFunction="average" totalsRowDxfId="66"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle16" displayName="Tabelle16" ref="C51:M92" totalsRowCount="1">
   <autoFilter ref="C51:M91"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nr" totalsRowLabel="s" totalsRowDxfId="21"/>
-    <tableColumn id="2" name="MP1" totalsRowFunction="custom" totalsRowDxfId="20">
+    <tableColumn id="1" name="Nr" totalsRowLabel="s" totalsRowDxfId="41"/>
+    <tableColumn id="2" name="MP1" totalsRowFunction="custom" totalsRowDxfId="40">
       <totalsRowFormula>STDEV(D52:D91)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="MP2" totalsRowFunction="custom" totalsRowDxfId="19">
+    <tableColumn id="3" name="MP2" totalsRowFunction="custom" totalsRowDxfId="39">
       <totalsRowFormula>STDEV(E52:E91)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="MP3" totalsRowFunction="custom" totalsRowDxfId="18">
+    <tableColumn id="4" name="MP3" totalsRowFunction="custom" totalsRowDxfId="38">
       <totalsRowFormula>STDEV(F52:F91)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="MP4" totalsRowFunction="custom" totalsRowDxfId="17">
+    <tableColumn id="5" name="MP4" totalsRowFunction="custom" totalsRowDxfId="37">
       <totalsRowFormula>STDEV(G52:G91)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="MP5" totalsRowFunction="custom" totalsRowDxfId="16">
+    <tableColumn id="6" name="MP5" totalsRowFunction="custom" totalsRowDxfId="36">
       <totalsRowFormula>STDEV(H52:H91)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="MP6" totalsRowFunction="custom" totalsRowDxfId="15">
+    <tableColumn id="7" name="MP6" totalsRowFunction="custom" totalsRowDxfId="35">
       <totalsRowFormula>STDEV(I52:I91)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="MP7" totalsRowFunction="custom" totalsRowDxfId="14">
+    <tableColumn id="8" name="MP7" totalsRowFunction="custom" totalsRowDxfId="34">
       <totalsRowFormula>STDEV(J52:J91)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="MP8" totalsRowFunction="custom" totalsRowDxfId="13">
+    <tableColumn id="9" name="MP8" totalsRowFunction="custom" totalsRowDxfId="33">
       <totalsRowFormula>STDEV(K52:K91)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="MP9" totalsRowFunction="custom" totalsRowDxfId="12">
+    <tableColumn id="10" name="MP9" totalsRowFunction="custom" totalsRowDxfId="32">
       <totalsRowFormula>STDEV(L52:L91)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="MP10" totalsRowFunction="custom" totalsRowDxfId="11">
+    <tableColumn id="11" name="MP10" totalsRowFunction="custom" totalsRowDxfId="31">
       <totalsRowFormula>STDEV(M52:M91)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -35967,39 +36154,39 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle17" displayName="Tabelle17" ref="C103:M142" totalsRowCount="1">
   <autoFilter ref="C103:M141"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nr" totalsRowLabel="s" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="MP1" totalsRowFunction="custom" totalsRowDxfId="9">
+    <tableColumn id="1" name="Nr" totalsRowLabel="s" totalsRowDxfId="30"/>
+    <tableColumn id="2" name="MP1" totalsRowFunction="custom" totalsRowDxfId="29">
       <totalsRowFormula>STDEV(D104:D141)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="MP2" totalsRowFunction="custom" totalsRowDxfId="8">
+    <tableColumn id="3" name="MP2" totalsRowFunction="custom" totalsRowDxfId="28">
       <totalsRowFormula>STDEV(E104:E141)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="MP3" totalsRowFunction="custom" totalsRowDxfId="7">
+    <tableColumn id="4" name="MP3" totalsRowFunction="custom" totalsRowDxfId="27">
       <totalsRowFormula>STDEV(F104:F141)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="MP4" totalsRowFunction="custom" totalsRowDxfId="6">
+    <tableColumn id="5" name="MP4" totalsRowFunction="custom" totalsRowDxfId="26">
       <totalsRowFormula>STDEV(G104:G141)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="MP5" totalsRowFunction="custom" totalsRowDxfId="5">
+    <tableColumn id="6" name="MP5" totalsRowFunction="custom" totalsRowDxfId="25">
       <totalsRowFormula>STDEV(H104:H141)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="MP6" totalsRowFunction="custom" totalsRowDxfId="4">
+    <tableColumn id="7" name="MP6" totalsRowFunction="custom" totalsRowDxfId="24">
       <totalsRowFormula>STDEV(I104:I141)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="MP7" totalsRowFunction="custom" totalsRowDxfId="3">
+    <tableColumn id="8" name="MP7" totalsRowFunction="custom" totalsRowDxfId="23">
       <totalsRowFormula>STDEV(J104:J141)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="MP8" totalsRowFunction="custom" totalsRowDxfId="2">
+    <tableColumn id="9" name="MP8" totalsRowFunction="custom" totalsRowDxfId="22">
       <totalsRowFormula>STDEV(K104:K141)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="MP9" totalsRowFunction="custom" totalsRowDxfId="1">
+    <tableColumn id="10" name="MP9" totalsRowFunction="custom" totalsRowDxfId="21">
       <totalsRowFormula>STDEV(L104:L141)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="MP10" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="11" name="MP10" totalsRowFunction="custom" totalsRowDxfId="20">
       <totalsRowFormula>STDEV(M104:M141)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -36011,17 +36198,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle1419" displayName="Tabelle1419" ref="B7:L26" totalsRowCount="1">
   <autoFilter ref="B7:L25"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="65"/>
-    <tableColumn id="2" name="MP1a" totalsRowFunction="average" totalsRowDxfId="64"/>
-    <tableColumn id="3" name="MP2a" totalsRowFunction="average" totalsRowDxfId="63"/>
-    <tableColumn id="4" name="MP3a" totalsRowFunction="average" totalsRowDxfId="62"/>
-    <tableColumn id="5" name="MP4a" totalsRowFunction="average" totalsRowDxfId="61"/>
-    <tableColumn id="6" name="MP5a" totalsRowFunction="average" totalsRowDxfId="60"/>
-    <tableColumn id="12" name="MP6a" totalsRowFunction="average" totalsRowDxfId="59"/>
-    <tableColumn id="7" name="MP7a" totalsRowFunction="average" totalsRowDxfId="58"/>
-    <tableColumn id="8" name="MP8a" totalsRowFunction="average" totalsRowDxfId="57"/>
-    <tableColumn id="9" name="MP9a" totalsRowFunction="average" totalsRowDxfId="56"/>
-    <tableColumn id="10" name="MP10a" totalsRowFunction="average" totalsRowDxfId="55"/>
+    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="85"/>
+    <tableColumn id="2" name="MP1a" totalsRowFunction="average" totalsRowDxfId="84"/>
+    <tableColumn id="3" name="MP2a" totalsRowFunction="average" totalsRowDxfId="83"/>
+    <tableColumn id="4" name="MP3a" totalsRowFunction="average" totalsRowDxfId="82"/>
+    <tableColumn id="5" name="MP4a" totalsRowFunction="average" totalsRowDxfId="81"/>
+    <tableColumn id="6" name="MP5a" totalsRowFunction="average" totalsRowDxfId="80"/>
+    <tableColumn id="12" name="MP6a" totalsRowFunction="average" totalsRowDxfId="79"/>
+    <tableColumn id="7" name="MP7a" totalsRowFunction="average" totalsRowDxfId="78"/>
+    <tableColumn id="8" name="MP8a" totalsRowFunction="average" totalsRowDxfId="77"/>
+    <tableColumn id="9" name="MP9a" totalsRowFunction="average" totalsRowDxfId="76"/>
+    <tableColumn id="10" name="MP10a" totalsRowFunction="average" totalsRowDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -36031,17 +36218,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle1420" displayName="Tabelle1420" ref="C6:M25" totalsRowCount="1">
   <autoFilter ref="C6:M24"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="54"/>
-    <tableColumn id="2" name="MP1b" totalsRowFunction="average" totalsRowDxfId="53"/>
-    <tableColumn id="3" name="MP2b" totalsRowFunction="average" totalsRowDxfId="52"/>
-    <tableColumn id="4" name="MP3b" totalsRowFunction="average" totalsRowDxfId="51"/>
-    <tableColumn id="5" name="MP4b" totalsRowFunction="average" totalsRowDxfId="50"/>
-    <tableColumn id="6" name="MP5b" totalsRowFunction="average" totalsRowDxfId="49"/>
-    <tableColumn id="12" name="MP6b" totalsRowFunction="average" totalsRowDxfId="48"/>
-    <tableColumn id="7" name="MP7b" totalsRowFunction="average" totalsRowDxfId="47"/>
-    <tableColumn id="8" name="MP8b" totalsRowFunction="average" totalsRowDxfId="46"/>
-    <tableColumn id="9" name="MP9b" totalsRowFunction="average" totalsRowDxfId="45"/>
-    <tableColumn id="10" name="MP10b" totalsRowFunction="average" totalsRowDxfId="44"/>
+    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="74"/>
+    <tableColumn id="2" name="MP1b" totalsRowFunction="average" totalsRowDxfId="73"/>
+    <tableColumn id="3" name="MP2b" totalsRowFunction="average" totalsRowDxfId="72"/>
+    <tableColumn id="4" name="MP3b" totalsRowFunction="average" totalsRowDxfId="71"/>
+    <tableColumn id="5" name="MP4b" totalsRowFunction="average" totalsRowDxfId="70"/>
+    <tableColumn id="6" name="MP5b" totalsRowFunction="average" totalsRowDxfId="69"/>
+    <tableColumn id="12" name="MP6b" totalsRowFunction="average" totalsRowDxfId="68"/>
+    <tableColumn id="7" name="MP7b" totalsRowFunction="average" totalsRowDxfId="67"/>
+    <tableColumn id="8" name="MP8b" totalsRowFunction="average" totalsRowDxfId="66"/>
+    <tableColumn id="9" name="MP9b" totalsRowFunction="average" totalsRowDxfId="65"/>
+    <tableColumn id="10" name="MP10b" totalsRowFunction="average" totalsRowDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -36088,7 +36275,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle610" displayName="Tabelle610" ref="C134:M140" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle610" displayName="Tabelle610" ref="C134:M140" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61">
   <autoFilter ref="C134:M140"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Charge"/>
@@ -36108,7 +36295,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle68" displayName="Tabelle68" ref="C43:M49" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle68" displayName="Tabelle68" ref="C43:M49" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59">
   <autoFilter ref="C43:M49"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Charge"/>
@@ -36128,7 +36315,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C9:M15" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C9:M15" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57">
   <autoFilter ref="C9:M15"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Charge"/>
@@ -36435,7 +36622,7 @@
   <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:M34"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -36449,7 +36636,7 @@
         <v>70</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
@@ -36467,37 +36654,37 @@
     </row>
     <row r="12" spans="1:13">
       <c r="C12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -37213,43 +37400,43 @@
         <v>25</v>
       </c>
       <c r="D33" s="1">
-        <f>SUBTOTAL(101,[Spalte2])</f>
+        <f>SUBTOTAL(101,[MP1])</f>
         <v>1.9490000000000003</v>
       </c>
       <c r="E33" s="1">
-        <f>SUBTOTAL(101,[Spalte3])</f>
+        <f>SUBTOTAL(101,[MP2])</f>
         <v>0.71950000000000014</v>
       </c>
       <c r="F33" s="1">
-        <f>SUBTOTAL(101,[Spalte4])</f>
+        <f>SUBTOTAL(101,[MP3])</f>
         <v>0.60099999999999998</v>
       </c>
       <c r="G33" s="1">
-        <f>SUBTOTAL(101,[Spalte5])</f>
+        <f>SUBTOTAL(101,[MP4])</f>
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="H33" s="1">
-        <f>SUBTOTAL(101,[Spalte6])</f>
+        <f>SUBTOTAL(101,[MP5])</f>
         <v>-0.29699999999999999</v>
       </c>
       <c r="I33" s="1">
-        <f>SUBTOTAL(101,[Spalte7])</f>
+        <f>SUBTOTAL(101,[MP6])</f>
         <v>-0.36799999999999999</v>
       </c>
       <c r="J33" s="1">
-        <f>SUBTOTAL(101,[Spalte8])</f>
+        <f>SUBTOTAL(101,[MP7])</f>
         <v>-0.29299999999999998</v>
       </c>
       <c r="K33" s="1">
-        <f>SUBTOTAL(101,[Spalte9])</f>
+        <f>SUBTOTAL(101,[MP8])</f>
         <v>0.45550000000000007</v>
       </c>
       <c r="L33" s="1">
-        <f>SUBTOTAL(101,[Spalte10])</f>
+        <f>SUBTOTAL(101,[MP9])</f>
         <v>1.3145000000000002</v>
       </c>
       <c r="M33" s="1">
-        <f>SUBTOTAL(101,[Spalte11])</f>
+        <f>SUBTOTAL(101,[MP10])</f>
         <v>2.9610000000000003</v>
       </c>
     </row>
@@ -37258,43 +37445,43 @@
         <v>26</v>
       </c>
       <c r="D34">
-        <f>STDEV(Tabelle14[Spalte2])</f>
+        <f>STDEV(Tabelle14[MP1])</f>
         <v>0.27030002823373267</v>
       </c>
       <c r="E34">
-        <f>STDEV(Tabelle14[Spalte3])</f>
+        <f>STDEV(Tabelle14[MP2])</f>
         <v>0.11573449651772093</v>
       </c>
       <c r="F34">
-        <f>STDEV(Tabelle14[Spalte4])</f>
+        <f>STDEV(Tabelle14[MP3])</f>
         <v>8.5587751214146704E-2</v>
       </c>
       <c r="G34">
-        <f>STDEV(Tabelle14[Spalte5])</f>
+        <f>STDEV(Tabelle14[MP4])</f>
         <v>3.592389616661136E-2</v>
       </c>
       <c r="H34">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="I34">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="J34">
-        <f>STDEV(Tabelle14[Spalte8])</f>
+        <f>STDEV(Tabelle14[MP7])</f>
         <v>2.4942038071455556E-2</v>
       </c>
       <c r="K34">
-        <f>STDEV(Tabelle14[Spalte9])</f>
+        <f>STDEV(Tabelle14[MP8])</f>
         <v>0.1128331324987196</v>
       </c>
       <c r="L34">
-        <f>STDEV(Tabelle14[Spalte10])</f>
+        <f>STDEV(Tabelle14[MP9])</f>
         <v>7.83699056096306E-2</v>
       </c>
       <c r="M34">
-        <f>STDEV(Tabelle14[Spalte11])</f>
+        <f>STDEV(Tabelle14[MP10])</f>
         <v>0.21041062610748731</v>
       </c>
     </row>
@@ -37380,43 +37567,43 @@
         <v>25</v>
       </c>
       <c r="D37" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte2])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP1])</f>
         <v>1.9490000000000003</v>
       </c>
       <c r="E37" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte3])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP2])</f>
         <v>0.71950000000000014</v>
       </c>
       <c r="F37" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte4])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP3])</f>
         <v>0.60099999999999998</v>
       </c>
       <c r="G37" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte5])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP4])</f>
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="H37" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte6])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP5])</f>
         <v>-0.29699999999999999</v>
       </c>
       <c r="I37" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte7])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP6])</f>
         <v>-0.36799999999999999</v>
       </c>
       <c r="J37" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte8])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP7])</f>
         <v>-0.29299999999999998</v>
       </c>
       <c r="K37" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte9])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP8])</f>
         <v>0.45550000000000007</v>
       </c>
       <c r="L37" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte10])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP9])</f>
         <v>1.3145000000000002</v>
       </c>
       <c r="M37" s="15">
-        <f>SUBTOTAL(101,Tabelle14[Spalte11])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP10])</f>
         <v>2.9610000000000003</v>
       </c>
     </row>
@@ -37457,43 +37644,43 @@
         <v>26</v>
       </c>
       <c r="D39">
-        <f>STDEV(Tabelle14[Spalte2])</f>
+        <f>STDEV(Tabelle14[MP1])</f>
         <v>0.27030002823373267</v>
       </c>
       <c r="E39">
-        <f>STDEV(Tabelle14[Spalte3])</f>
+        <f>STDEV(Tabelle14[MP2])</f>
         <v>0.11573449651772093</v>
       </c>
       <c r="F39">
-        <f>STDEV(Tabelle14[Spalte4])</f>
+        <f>STDEV(Tabelle14[MP3])</f>
         <v>8.5587751214146704E-2</v>
       </c>
       <c r="G39">
-        <f>STDEV(Tabelle14[Spalte5])</f>
+        <f>STDEV(Tabelle14[MP4])</f>
         <v>3.592389616661136E-2</v>
       </c>
       <c r="H39">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="I39">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="J39">
-        <f>STDEV(Tabelle14[Spalte8])</f>
+        <f>STDEV(Tabelle14[MP7])</f>
         <v>2.4942038071455556E-2</v>
       </c>
       <c r="K39">
-        <f>STDEV(Tabelle14[Spalte9])</f>
+        <f>STDEV(Tabelle14[MP8])</f>
         <v>0.1128331324987196</v>
       </c>
       <c r="L39">
-        <f>STDEV(Tabelle14[Spalte10])</f>
+        <f>STDEV(Tabelle14[MP9])</f>
         <v>7.83699056096306E-2</v>
       </c>
       <c r="M39">
-        <f>STDEV(Tabelle14[Spalte11])</f>
+        <f>STDEV(Tabelle14[MP10])</f>
         <v>0.21041062610748731</v>
       </c>
     </row>
@@ -37579,7 +37766,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="C42" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D42">
         <v>1.95</v>
@@ -37659,43 +37846,43 @@
         <v>28</v>
       </c>
       <c r="D47" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte2])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP1])</f>
         <v>1.9490000000000003</v>
       </c>
       <c r="E47" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte3])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP2])</f>
         <v>0.71950000000000014</v>
       </c>
       <c r="F47" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte4])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP3])</f>
         <v>0.60099999999999998</v>
       </c>
       <c r="G47" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte5])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP4])</f>
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="H47" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte6])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP5])</f>
         <v>-0.29699999999999999</v>
       </c>
       <c r="I47" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte7])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP6])</f>
         <v>-0.36799999999999999</v>
       </c>
       <c r="J47" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte8])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP7])</f>
         <v>-0.29299999999999998</v>
       </c>
       <c r="K47" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte9])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP8])</f>
         <v>0.45550000000000007</v>
       </c>
       <c r="L47" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte10])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP9])</f>
         <v>1.3145000000000002</v>
       </c>
       <c r="M47" s="15">
-        <f>SUBTOTAL(101,Tabelle14[Spalte11])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP10])</f>
         <v>2.9610000000000003</v>
       </c>
     </row>
@@ -37793,43 +37980,43 @@
         <v>28</v>
       </c>
       <c r="D65">
-        <f>STDEV(Tabelle14[Spalte2])</f>
+        <f>STDEV(Tabelle14[MP1])</f>
         <v>0.27030002823373267</v>
       </c>
       <c r="E65">
-        <f>STDEV(Tabelle14[Spalte3])</f>
+        <f>STDEV(Tabelle14[MP2])</f>
         <v>0.11573449651772093</v>
       </c>
       <c r="F65">
-        <f>STDEV(Tabelle14[Spalte4])</f>
+        <f>STDEV(Tabelle14[MP3])</f>
         <v>8.5587751214146704E-2</v>
       </c>
       <c r="G65">
-        <f>STDEV(Tabelle14[Spalte5])</f>
+        <f>STDEV(Tabelle14[MP4])</f>
         <v>3.592389616661136E-2</v>
       </c>
       <c r="H65">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="I65">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="J65">
-        <f>STDEV(Tabelle14[Spalte8])</f>
+        <f>STDEV(Tabelle14[MP7])</f>
         <v>2.4942038071455556E-2</v>
       </c>
       <c r="K65">
-        <f>STDEV(Tabelle14[Spalte9])</f>
+        <f>STDEV(Tabelle14[MP8])</f>
         <v>0.1128331324987196</v>
       </c>
       <c r="L65">
-        <f>STDEV(Tabelle14[Spalte10])</f>
+        <f>STDEV(Tabelle14[MP9])</f>
         <v>7.83699056096306E-2</v>
       </c>
       <c r="M65">
-        <f>STDEV(Tabelle14[Spalte11])</f>
+        <f>STDEV(Tabelle14[MP10])</f>
         <v>0.21041062610748731</v>
       </c>
     </row>
@@ -37883,39 +38070,39 @@
         <v>33</v>
       </c>
       <c r="D123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" t="s">
+        <v>80</v>
+      </c>
+      <c r="G123" t="s">
+        <v>81</v>
+      </c>
+      <c r="H123" t="s">
+        <v>82</v>
+      </c>
+      <c r="I123" t="s">
+        <v>83</v>
+      </c>
+      <c r="J123" t="s">
         <v>84</v>
       </c>
-      <c r="E123" t="s">
+      <c r="K123" t="s">
         <v>85</v>
       </c>
-      <c r="F123" t="s">
+      <c r="L123" t="s">
         <v>86</v>
       </c>
-      <c r="G123" t="s">
+      <c r="M123" t="s">
         <v>87</v>
-      </c>
-      <c r="H123" t="s">
-        <v>88</v>
-      </c>
-      <c r="I123" t="s">
-        <v>89</v>
-      </c>
-      <c r="J123" t="s">
-        <v>90</v>
-      </c>
-      <c r="K123" t="s">
-        <v>91</v>
-      </c>
-      <c r="L123" t="s">
-        <v>92</v>
-      </c>
-      <c r="M123" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C124" t="s">
         <v>47</v>
@@ -37953,7 +38140,7 @@
     </row>
     <row r="125" spans="1:13">
       <c r="C125" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D125">
         <v>-0.66</v>
@@ -38058,7 +38245,7 @@
     </row>
     <row r="128" spans="1:13">
       <c r="C128" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D128">
         <v>0.22</v>
@@ -38128,7 +38315,7 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C132" t="s">
         <v>47</v>
@@ -38166,7 +38353,7 @@
     </row>
     <row r="133" spans="1:13">
       <c r="C133" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D133">
         <v>0.22</v>
@@ -38248,8 +38435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -38268,7 +38455,7 @@
         <v>71</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -38284,37 +38471,37 @@
       <c r="H4" s="28"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -39235,7 +39422,7 @@
     </row>
     <row r="35" spans="3:13" ht="15.75">
       <c r="C35" s="42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D35">
         <v>0.81</v>
@@ -39270,7 +39457,7 @@
     </row>
     <row r="36" spans="3:13" ht="15.75">
       <c r="C36" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:M36" si="2">ABS(ABS(MIN(D7:D26)-ABS(MAX(D7:D26))))</f>
@@ -39315,7 +39502,7 @@
     </row>
     <row r="37" spans="3:13">
       <c r="C37" s="36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D37">
         <f>MAX(D36:M36)</f>
@@ -39325,6 +39512,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -39332,7 +39522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -40149,7 +40339,7 @@
     </row>
     <row r="32" spans="4:12" ht="15.75">
       <c r="D32" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E32">
         <f>ABS(ABS(MIN(E5:E24)-ABS(MAX(E5:E24))))</f>
@@ -40186,7 +40376,7 @@
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E33">
         <f>MAX(E32:L32)</f>
@@ -40202,8 +40392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:N30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -40233,37 +40423,37 @@
       <c r="G2" s="19"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -41184,7 +41374,7 @@
     </row>
     <row r="34" spans="4:14" ht="15.75">
       <c r="D34" s="42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E34">
         <v>2.44</v>
@@ -41219,7 +41409,7 @@
     </row>
     <row r="35" spans="4:14" ht="15.75">
       <c r="D35" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:N35" si="2">ABS(ABS(MIN(E6:E25))-ABS(MAX(E6:E25)))</f>
@@ -41264,7 +41454,7 @@
     </row>
     <row r="36" spans="4:14">
       <c r="D36" s="36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <f>MAX(E35:N35)</f>
@@ -41273,6 +41463,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -42100,12 +42293,12 @@
     </row>
     <row r="37" spans="4:12" ht="15.75">
       <c r="D37" s="42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="4:12" ht="15.75">
       <c r="D38" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E38">
         <f>ABS(ABS(MIN(E9:E28)-ABS(MAX(E9:E28))))</f>
@@ -42142,7 +42335,7 @@
     </row>
     <row r="39" spans="4:12">
       <c r="D39" s="36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <f>MAX(E38:L38)</f>
@@ -42158,7 +42351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O307"/>
   <sheetViews>
-    <sheetView topLeftCell="B124" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O131" sqref="O131"/>
     </sheetView>
   </sheetViews>
@@ -42171,7 +42364,7 @@
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -42183,37 +42376,37 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
-      </c>
-      <c r="H3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -43133,7 +43326,7 @@
     </row>
     <row r="29" spans="3:13" ht="15.75">
       <c r="C29" s="33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1">
         <v>-8.1999999999999993</v>
@@ -43168,7 +43361,7 @@
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="35" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" ref="D30:M30" si="4">ABS(ABS(MIN(D4:D23))-ABS(MAX(D4:D23)))</f>
@@ -43226,7 +43419,7 @@
     </row>
     <row r="87" spans="3:13" ht="26.25">
       <c r="D87" s="34" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E87" s="34"/>
       <c r="H87" s="34"/>
@@ -43239,39 +43432,39 @@
         <v>33</v>
       </c>
       <c r="D89" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89" t="s">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" t="s">
         <v>84</v>
       </c>
-      <c r="E89" t="s">
+      <c r="K89" t="s">
         <v>85</v>
       </c>
-      <c r="F89" t="s">
+      <c r="L89" t="s">
         <v>86</v>
       </c>
-      <c r="G89" t="s">
+      <c r="M89" t="s">
         <v>87</v>
-      </c>
-      <c r="H89" t="s">
-        <v>88</v>
-      </c>
-      <c r="I89" t="s">
-        <v>89</v>
-      </c>
-      <c r="J89" t="s">
-        <v>90</v>
-      </c>
-      <c r="K89" t="s">
-        <v>91</v>
-      </c>
-      <c r="L89" t="s">
-        <v>92</v>
-      </c>
-      <c r="M89" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="90" spans="3:13">
       <c r="C90" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D90">
         <v>0.16154761396859962</v>
@@ -43376,7 +43569,7 @@
     </row>
     <row r="93" spans="3:13">
       <c r="C93" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D93">
         <v>5.3437124883263222E-2</v>
@@ -43411,7 +43604,7 @@
     </row>
     <row r="94" spans="3:13">
       <c r="C94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D94">
         <v>0.67787962756944131</v>
@@ -43492,41 +43685,41 @@
     </row>
     <row r="236" spans="3:11" ht="21">
       <c r="E236" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
       <c r="I236" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="240" spans="3:11">
       <c r="C240" s="37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D240" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E240" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F240" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G240" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H240" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I240" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="J240" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E240" s="37" t="s">
+      <c r="K240" s="37" t="s">
         <v>86</v>
-      </c>
-      <c r="F240" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G240" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="H240" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="I240" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="J240" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="K240" s="37" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="241" spans="3:11" ht="15.75">
@@ -43677,12 +43870,12 @@
   <sheetData>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -43712,7 +43905,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -44668,7 +44861,7 @@
     </row>
     <row r="32" spans="4:14" ht="15.75">
       <c r="D32" s="33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1">
         <v>-0.78</v>
@@ -44703,42 +44896,42 @@
     </row>
     <row r="70" spans="2:12" ht="18.75">
       <c r="E70" s="19" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="2:12">
       <c r="B71" s="37" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C71" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="J71" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E71" s="37" t="s">
+      <c r="K71" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F71" s="37" t="s">
+      <c r="L71" s="37" t="s">
         <v>87</v>
-      </c>
-      <c r="G71" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="H71" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="I71" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="J71" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="K71" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="L71" s="37" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="72" spans="2:12">
@@ -45585,7 +45778,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>0</v>
@@ -45620,7 +45813,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -45728,7 +45921,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="C8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>2.524</v>
@@ -45763,7 +45956,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="C9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>8.1999999999999993</v>
@@ -45798,7 +45991,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="C10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -45941,7 +46134,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="C14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <v>2.5000000000000001E-2</v>
@@ -45976,7 +46169,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="C15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <v>0.9</v>
@@ -46019,7 +46212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
@@ -46027,37 +46220,37 @@
   <sheetData>
     <row r="3" spans="1:12">
       <c r="B3" s="44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C3" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="J3" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="K3" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="L3" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -46170,7 +46363,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>2.524</v>
@@ -46205,7 +46398,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>8.1999999999999993</v>
@@ -46240,7 +46433,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -46275,7 +46468,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -46383,7 +46576,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C13">
         <v>2.5000000000000001E-2</v>
@@ -46418,7 +46611,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>0.9</v>
@@ -46755,39 +46948,39 @@
     </row>
     <row r="101" spans="2:13">
       <c r="D101" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" t="s">
+        <v>79</v>
+      </c>
+      <c r="F101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s">
+        <v>82</v>
+      </c>
+      <c r="I101" t="s">
+        <v>83</v>
+      </c>
+      <c r="J101" t="s">
         <v>84</v>
       </c>
-      <c r="E101" t="s">
+      <c r="K101" t="s">
         <v>85</v>
       </c>
-      <c r="F101" t="s">
+      <c r="L101" t="s">
         <v>86</v>
       </c>
-      <c r="G101" t="s">
+      <c r="M101" t="s">
         <v>87</v>
-      </c>
-      <c r="H101" t="s">
-        <v>88</v>
-      </c>
-      <c r="I101" t="s">
-        <v>89</v>
-      </c>
-      <c r="J101" t="s">
-        <v>90</v>
-      </c>
-      <c r="K101" t="s">
-        <v>91</v>
-      </c>
-      <c r="L101" t="s">
-        <v>92</v>
-      </c>
-      <c r="M101" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="102" spans="2:13">
       <c r="B102" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C102" t="s">
         <v>54</v>
@@ -46930,7 +47123,7 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
         <v>54</v>
@@ -47073,7 +47266,7 @@
     </row>
     <row r="159" spans="5:5">
       <c r="E159" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -47094,42 +47287,42 @@
   <sheetData>
     <row r="7" spans="2:12">
       <c r="E7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C8" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="J8" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="K8" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="L8" s="49" t="s">
         <v>87</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -47137,43 +47330,43 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <f>STDEV(Tabelle14[Spalte2])</f>
+        <f>STDEV(Tabelle14[MP1])</f>
         <v>0.27030002823373267</v>
       </c>
       <c r="D9">
-        <f>STDEV(Tabelle14[Spalte3])</f>
+        <f>STDEV(Tabelle14[MP2])</f>
         <v>0.11573449651772093</v>
       </c>
       <c r="E9">
-        <f>STDEV(Tabelle14[Spalte4])</f>
+        <f>STDEV(Tabelle14[MP3])</f>
         <v>8.5587751214146704E-2</v>
       </c>
       <c r="F9">
-        <f>STDEV(Tabelle14[Spalte5])</f>
+        <f>STDEV(Tabelle14[MP4])</f>
         <v>3.592389616661136E-2</v>
       </c>
       <c r="G9">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="H9">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="I9">
-        <f>STDEV(Tabelle14[Spalte8])</f>
+        <f>STDEV(Tabelle14[MP7])</f>
         <v>2.4942038071455556E-2</v>
       </c>
       <c r="J9">
-        <f>STDEV(Tabelle14[Spalte9])</f>
+        <f>STDEV(Tabelle14[MP8])</f>
         <v>0.1128331324987196</v>
       </c>
       <c r="K9">
-        <f>STDEV(Tabelle14[Spalte10])</f>
+        <f>STDEV(Tabelle14[MP9])</f>
         <v>7.83699056096306E-2</v>
       </c>
       <c r="L9">
-        <f>STDEV(Tabelle14[Spalte11])</f>
+        <f>STDEV(Tabelle14[MP10])</f>
         <v>0.21041062610748731</v>
       </c>
     </row>
@@ -47249,7 +47442,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>0.16154761396859962</v>
@@ -47374,16 +47567,16 @@
         <v>36</v>
       </c>
       <c r="O58" s="51" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P58" s="51" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="14:18">
@@ -47400,7 +47593,7 @@
         <v>12.3</v>
       </c>
       <c r="R59" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="14:18">
@@ -47417,7 +47610,7 @@
         <v>12.45</v>
       </c>
       <c r="R60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="14:18">
@@ -47434,12 +47627,12 @@
         <v>20.41</v>
       </c>
       <c r="R61" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="14:18">
       <c r="N62" s="31" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O62" s="23">
         <v>135</v>
@@ -47451,7 +47644,7 @@
         <v>16</v>
       </c>
       <c r="R62" s="23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="14:18">
@@ -47468,7 +47661,7 @@
         <v>19.149999999999999</v>
       </c>
       <c r="R63" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="14:18">
@@ -47485,7 +47678,7 @@
         <v>11.75</v>
       </c>
       <c r="R64" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="5:18">
@@ -47502,12 +47695,12 @@
         <v>13</v>
       </c>
       <c r="R65" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="5:18">
       <c r="N66" s="31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O66">
         <v>193.5</v>
@@ -47519,50 +47712,50 @@
         <v>10.199999999999999</v>
       </c>
       <c r="R66" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="5:18" ht="18.75">
       <c r="G74" s="22"/>
       <c r="H74" s="22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
     </row>
     <row r="75" spans="5:18">
       <c r="E75" s="49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F75" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J75" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="K75" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L75" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G75" s="49" t="s">
+      <c r="M75" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="H75" s="49" t="s">
+      <c r="N75" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I75" s="49" t="s">
+      <c r="O75" s="49" t="s">
         <v>87</v>
-      </c>
-      <c r="J75" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="K75" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="L75" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="M75" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="N75" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="O75" s="49" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="76" spans="5:18">
@@ -47672,7 +47865,7 @@
     </row>
     <row r="79" spans="5:18">
       <c r="E79" s="31" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F79">
         <v>-0.77649999999999986</v>
@@ -47777,42 +47970,42 @@
     </row>
     <row r="128" spans="9:9">
       <c r="I128" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="6:16">
       <c r="F129" s="49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G129" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H129" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I129" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J129" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="K129" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="L129" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="M129" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H129" s="49" t="s">
+      <c r="N129" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="I129" s="49" t="s">
+      <c r="O129" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="J129" s="49" t="s">
+      <c r="P129" s="49" t="s">
         <v>87</v>
-      </c>
-      <c r="K129" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="L129" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="M129" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="N129" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="O129" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="P129" s="49" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="130" spans="6:16">
@@ -47820,43 +48013,43 @@
         <v>46</v>
       </c>
       <c r="G130">
-        <f>STDEV(Tabelle14[Spalte2])</f>
+        <f>STDEV(Tabelle14[MP1])</f>
         <v>0.27030002823373267</v>
       </c>
       <c r="H130">
-        <f>STDEV(Tabelle14[Spalte3])</f>
+        <f>STDEV(Tabelle14[MP2])</f>
         <v>0.11573449651772093</v>
       </c>
       <c r="I130">
-        <f>STDEV(Tabelle14[Spalte4])</f>
+        <f>STDEV(Tabelle14[MP3])</f>
         <v>8.5587751214146704E-2</v>
       </c>
       <c r="J130">
-        <f>STDEV(Tabelle14[Spalte5])</f>
+        <f>STDEV(Tabelle14[MP4])</f>
         <v>3.592389616661136E-2</v>
       </c>
       <c r="K130">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="L130">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="M130">
-        <f>STDEV(Tabelle14[Spalte8])</f>
+        <f>STDEV(Tabelle14[MP7])</f>
         <v>2.4942038071455556E-2</v>
       </c>
       <c r="N130">
-        <f>STDEV(Tabelle14[Spalte9])</f>
+        <f>STDEV(Tabelle14[MP8])</f>
         <v>0.1128331324987196</v>
       </c>
       <c r="O130">
-        <f>STDEV(Tabelle14[Spalte10])</f>
+        <f>STDEV(Tabelle14[MP9])</f>
         <v>7.83699056096306E-2</v>
       </c>
       <c r="P130">
-        <f>STDEV(Tabelle14[Spalte11])</f>
+        <f>STDEV(Tabelle14[MP10])</f>
         <v>0.21041062610748731</v>
       </c>
     </row>
@@ -47932,7 +48125,7 @@
     </row>
     <row r="133" spans="6:16">
       <c r="F133" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G133">
         <v>0.16154761396859962</v>
@@ -48037,7 +48230,7 @@
     </row>
     <row r="137" spans="6:16">
       <c r="I137" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="6:16">
@@ -48208,7 +48401,7 @@
         <v>71</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -49399,16 +49592,16 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="4:8">
@@ -49425,7 +49618,7 @@
         <v>12.3</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="4:8">
@@ -49442,7 +49635,7 @@
         <v>12.45</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="4:8">
@@ -49459,12 +49652,12 @@
         <v>20.41</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="D10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>135</v>
@@ -49476,7 +49669,7 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="4:8">
@@ -49493,7 +49686,7 @@
         <v>19.149999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="4:8">
@@ -49510,7 +49703,7 @@
         <v>11.75</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="4:8">
@@ -49527,12 +49720,12 @@
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="D14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>193.5</v>
@@ -49544,7 +49737,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="4:14">
@@ -49552,39 +49745,39 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" t="s">
+      <c r="L21" t="s">
         <v>85</v>
       </c>
-      <c r="G21" t="s">
+      <c r="M21" t="s">
         <v>86</v>
       </c>
-      <c r="H21" t="s">
+      <c r="N21" t="s">
         <v>87</v>
-      </c>
-      <c r="I21" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="4:14">
       <c r="D22" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>0.16154761396859962</v>
@@ -49689,7 +49882,7 @@
     </row>
     <row r="25" spans="4:14">
       <c r="D25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>135</v>
@@ -49794,36 +49987,36 @@
     </row>
     <row r="85" spans="7:18">
       <c r="M85" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N85" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O85" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P85" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q85" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="R85" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="7:18">
       <c r="G86" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H86" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I86" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J86" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M86" t="s">
         <v>46</v>
@@ -49890,7 +50083,7 @@
         <v>153.30000000000001</v>
       </c>
       <c r="M88" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N88">
         <f>N87-N86</f>
@@ -49911,7 +50104,7 @@
     </row>
     <row r="89" spans="7:18">
       <c r="G89" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H89">
         <f>H88-H87</f>
@@ -49924,13 +50117,13 @@
     </row>
     <row r="92" spans="7:18">
       <c r="G92" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H92" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I92" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="7:18">
@@ -49946,7 +50139,7 @@
     </row>
     <row r="94" spans="7:18">
       <c r="G94" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H94">
         <v>135</v>
@@ -49957,7 +50150,7 @@
     </row>
     <row r="95" spans="7:18">
       <c r="G95" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H95">
         <f>H94-H93</f>
@@ -49970,31 +50163,31 @@
     </row>
     <row r="97" spans="3:13">
       <c r="C97" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D97" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F97" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G97" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H97" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I97" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J97" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K97" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="3:13">
@@ -50046,7 +50239,7 @@
         <v>71.2</v>
       </c>
       <c r="I99" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J99">
         <v>135</v>
@@ -50057,7 +50250,7 @@
     </row>
     <row r="100" spans="3:13">
       <c r="C100" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D100">
         <f>D99-D98</f>
@@ -50076,7 +50269,7 @@
         <v>-3.4500000000000028</v>
       </c>
       <c r="I100" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J100">
         <f>J99-J98</f>
@@ -50092,39 +50285,39 @@
         <v>33</v>
       </c>
       <c r="D101" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" t="s">
+        <v>79</v>
+      </c>
+      <c r="F101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s">
+        <v>82</v>
+      </c>
+      <c r="I101" t="s">
+        <v>83</v>
+      </c>
+      <c r="J101" t="s">
         <v>84</v>
       </c>
-      <c r="E101" t="s">
+      <c r="K101" t="s">
         <v>85</v>
       </c>
-      <c r="F101" t="s">
+      <c r="L101" t="s">
         <v>86</v>
       </c>
-      <c r="G101" t="s">
+      <c r="M101" t="s">
         <v>87</v>
-      </c>
-      <c r="H101" t="s">
-        <v>88</v>
-      </c>
-      <c r="I101" t="s">
-        <v>89</v>
-      </c>
-      <c r="J101" t="s">
-        <v>90</v>
-      </c>
-      <c r="K101" t="s">
-        <v>91</v>
-      </c>
-      <c r="L101" t="s">
-        <v>92</v>
-      </c>
-      <c r="M101" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="102" spans="3:13">
       <c r="C102" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D102">
         <v>0.16154761396859962</v>
@@ -50229,7 +50422,7 @@
     </row>
     <row r="105" spans="3:13">
       <c r="C105" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D105">
         <v>5.3437124883263222E-2</v>
@@ -50264,7 +50457,7 @@
     </row>
     <row r="106" spans="3:13">
       <c r="C106" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D106">
         <v>0.67787962756944131</v>
@@ -50299,31 +50492,31 @@
     </row>
     <row r="111" spans="3:13">
       <c r="E111" s="52" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F111" s="52" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G111" s="52" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H111" s="52" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I111" s="52" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J111" s="52" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K111" s="52" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L111" s="52" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M111" s="52" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="3:13">
@@ -50375,7 +50568,7 @@
         <v>71.2</v>
       </c>
       <c r="K113" s="53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L113" s="53">
         <v>135</v>
@@ -50386,7 +50579,7 @@
     </row>
     <row r="114" spans="5:13">
       <c r="E114" s="54" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F114" s="54">
         <v>5.75</v>
@@ -50402,7 +50595,7 @@
         <v>-3.4500000000000028</v>
       </c>
       <c r="K114" s="53" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L114" s="53">
         <v>-14.300000000000011</v>
@@ -50437,42 +50630,42 @@
   <sheetData>
     <row r="3" spans="3:13" ht="21">
       <c r="G3" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="3:13">
       <c r="C4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>86</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
         <v>87</v>
-      </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="3:13">
@@ -51877,7 +52070,7 @@
     </row>
     <row r="45" spans="3:13">
       <c r="C45" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D45" s="1">
         <f>STDEV(D5:D44)</f>
@@ -51923,42 +52116,42 @@
     <row r="50" spans="3:13" ht="21">
       <c r="F50" s="16"/>
       <c r="G50" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="3:13">
       <c r="C51" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s">
         <v>84</v>
       </c>
-      <c r="E51" t="s">
+      <c r="K51" t="s">
         <v>85</v>
       </c>
-      <c r="F51" t="s">
+      <c r="L51" t="s">
         <v>86</v>
       </c>
-      <c r="G51" t="s">
+      <c r="M51" t="s">
         <v>87</v>
-      </c>
-      <c r="H51" t="s">
-        <v>88</v>
-      </c>
-      <c r="I51" t="s">
-        <v>89</v>
-      </c>
-      <c r="J51" t="s">
-        <v>90</v>
-      </c>
-      <c r="K51" t="s">
-        <v>91</v>
-      </c>
-      <c r="L51" t="s">
-        <v>92</v>
-      </c>
-      <c r="M51" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="52" spans="3:13">
@@ -53363,7 +53556,7 @@
     </row>
     <row r="92" spans="3:13">
       <c r="C92" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D92" s="1">
         <f>STDEV(D52:D91)</f>
@@ -53408,42 +53601,42 @@
     </row>
     <row r="102" spans="3:13" ht="18.75">
       <c r="G102" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="3:13">
       <c r="C103" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D103" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103" t="s">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s">
+        <v>82</v>
+      </c>
+      <c r="I103" t="s">
+        <v>83</v>
+      </c>
+      <c r="J103" t="s">
         <v>84</v>
       </c>
-      <c r="E103" t="s">
+      <c r="K103" t="s">
         <v>85</v>
       </c>
-      <c r="F103" t="s">
+      <c r="L103" t="s">
         <v>86</v>
       </c>
-      <c r="G103" t="s">
+      <c r="M103" t="s">
         <v>87</v>
-      </c>
-      <c r="H103" t="s">
-        <v>88</v>
-      </c>
-      <c r="I103" t="s">
-        <v>89</v>
-      </c>
-      <c r="J103" t="s">
-        <v>90</v>
-      </c>
-      <c r="K103" t="s">
-        <v>91</v>
-      </c>
-      <c r="L103" t="s">
-        <v>92</v>
-      </c>
-      <c r="M103" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="104" spans="3:13">
@@ -54778,7 +54971,7 @@
     </row>
     <row r="142" spans="3:13">
       <c r="C142" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D142" s="1">
         <f>STDEV(D104:D141)</f>
@@ -54823,37 +55016,37 @@
     </row>
     <row r="146" spans="3:13">
       <c r="C146" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D146" t="s">
+        <v>78</v>
+      </c>
+      <c r="E146" t="s">
+        <v>79</v>
+      </c>
+      <c r="F146" t="s">
+        <v>80</v>
+      </c>
+      <c r="G146" t="s">
+        <v>81</v>
+      </c>
+      <c r="H146" t="s">
+        <v>82</v>
+      </c>
+      <c r="I146" t="s">
+        <v>83</v>
+      </c>
+      <c r="J146" t="s">
         <v>84</v>
       </c>
-      <c r="E146" t="s">
+      <c r="K146" t="s">
         <v>85</v>
       </c>
-      <c r="F146" t="s">
+      <c r="L146" t="s">
         <v>86</v>
       </c>
-      <c r="G146" t="s">
+      <c r="M146" t="s">
         <v>87</v>
-      </c>
-      <c r="H146" t="s">
-        <v>88</v>
-      </c>
-      <c r="I146" t="s">
-        <v>89</v>
-      </c>
-      <c r="J146" t="s">
-        <v>90</v>
-      </c>
-      <c r="K146" t="s">
-        <v>91</v>
-      </c>
-      <c r="L146" t="s">
-        <v>92</v>
-      </c>
-      <c r="M146" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="147" spans="3:13">
@@ -54988,11 +55181,169 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:14">
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>0.45378959882306691</v>
+      </c>
+      <c r="F5">
+        <v>0.12130431501849086</v>
+      </c>
+      <c r="G5">
+        <v>6.8092429442401306E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.0770380921826529E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.10287447640079071</v>
+      </c>
+      <c r="J5">
+        <v>0.16392873933190411</v>
+      </c>
+      <c r="K5">
+        <v>0.218855275419505</v>
+      </c>
+      <c r="L5">
+        <v>0.23452303219850071</v>
+      </c>
+      <c r="M5">
+        <v>0.21083792727815212</v>
+      </c>
+      <c r="N5">
+        <v>0.43154678955930992</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>0.12145932825869225</v>
+      </c>
+      <c r="F6">
+        <v>6.6062171674232714E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.7772572611727615E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.4608937423083801E-2</v>
+      </c>
+      <c r="I6">
+        <v>3.8644806282753824E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.5021043774769821E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.218281792655454E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.98944583661936E-2</v>
+      </c>
+      <c r="M6">
+        <v>5.1121629988015636E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.1044018047837549</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>0.15118479455705683</v>
+      </c>
+      <c r="F7">
+        <v>3.7766596212438205E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.3324560249003474E-2</v>
+      </c>
+      <c r="H7">
+        <v>9.3330200448672081E-3</v>
+      </c>
+      <c r="I7">
+        <v>1.6693837501494849E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.922169826551564E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.5423836644690757E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.5874189537269287E-2</v>
+      </c>
+      <c r="M7">
+        <v>5.6501047964198518E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.10868956275849763</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>5.3437124883263222E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.5758694194927144E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.5729244987382724E-2</v>
+      </c>
+      <c r="H8">
+        <v>4.0249223594996199E-2</v>
+      </c>
+      <c r="I8">
+        <v>8.5092828567889578E-2</v>
+      </c>
+      <c r="J8">
+        <v>4.0509907819926555E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.661123624969116E-2</v>
+      </c>
+      <c r="L8">
+        <v>6.3627203715325875E-2</v>
+      </c>
+      <c r="M8">
+        <v>0.19771324264143297</v>
+      </c>
+      <c r="N8">
+        <v>0.19773453762158261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27:L27"/>
     </sheetView>
   </sheetViews>
@@ -55012,7 +55363,7 @@
         <v>71</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -55918,7 +56269,7 @@
     </row>
     <row r="31" spans="2:12" ht="15.75">
       <c r="B31" s="32" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C31">
         <v>0.81</v>
@@ -57212,8 +57563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -58199,7 +58550,7 @@
     </row>
     <row r="30" spans="3:13" ht="15.75">
       <c r="C30" s="32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D30">
         <v>-0.66</v>
@@ -58277,7 +58628,7 @@
     </row>
     <row r="106" spans="4:14" ht="15.75" thickTop="1">
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E106">
         <f>STDEV(Tabelle2[MP1a])</f>
@@ -58370,43 +58721,43 @@
         <v>46</v>
       </c>
       <c r="E108">
-        <f>STDEV(Tabelle14[Spalte2])</f>
+        <f>STDEV(Tabelle14[MP1])</f>
         <v>0.27030002823373267</v>
       </c>
       <c r="F108">
-        <f>STDEV(Tabelle14[Spalte3])</f>
+        <f>STDEV(Tabelle14[MP2])</f>
         <v>0.11573449651772093</v>
       </c>
       <c r="G108">
-        <f>STDEV(Tabelle14[Spalte4])</f>
+        <f>STDEV(Tabelle14[MP3])</f>
         <v>8.5587751214146704E-2</v>
       </c>
       <c r="H108">
-        <f>STDEV(Tabelle14[Spalte5])</f>
+        <f>STDEV(Tabelle14[MP4])</f>
         <v>3.592389616661136E-2</v>
       </c>
       <c r="I108">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="J108">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="K108">
-        <f>STDEV(Tabelle14[Spalte8])</f>
+        <f>STDEV(Tabelle14[MP7])</f>
         <v>2.4942038071455556E-2</v>
       </c>
       <c r="L108">
-        <f>STDEV(Tabelle14[Spalte9])</f>
+        <f>STDEV(Tabelle14[MP8])</f>
         <v>0.1128331324987196</v>
       </c>
       <c r="M108">
-        <f>STDEV(Tabelle14[Spalte10])</f>
+        <f>STDEV(Tabelle14[MP9])</f>
         <v>7.83699056096306E-2</v>
       </c>
       <c r="N108">
-        <f>STDEV(Tabelle14[Spalte11])</f>
+        <f>STDEV(Tabelle14[MP10])</f>
         <v>0.21041062610748731</v>
       </c>
     </row>
@@ -58545,49 +58896,49 @@
         <v>28</v>
       </c>
       <c r="E132" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte2])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP1])</f>
         <v>1.9490000000000003</v>
       </c>
       <c r="F132" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte3])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP2])</f>
         <v>0.71950000000000014</v>
       </c>
       <c r="G132" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte4])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP3])</f>
         <v>0.60099999999999998</v>
       </c>
       <c r="H132" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte5])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP4])</f>
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="I132" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte6])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP5])</f>
         <v>-0.29699999999999999</v>
       </c>
       <c r="J132" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte7])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP6])</f>
         <v>-0.36799999999999999</v>
       </c>
       <c r="K132" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte8])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP7])</f>
         <v>-0.29299999999999998</v>
       </c>
       <c r="L132" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte9])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP8])</f>
         <v>0.45550000000000007</v>
       </c>
       <c r="M132" s="14">
-        <f>SUBTOTAL(101,Tabelle14[Spalte10])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP9])</f>
         <v>1.3145000000000002</v>
       </c>
       <c r="N132" s="15">
-        <f>SUBTOTAL(101,Tabelle14[Spalte11])</f>
+        <f>SUBTOTAL(101,Tabelle14[MP10])</f>
         <v>2.9610000000000003</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D30:M30">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60126,43 +60477,43 @@
         <v>46</v>
       </c>
       <c r="D13" s="1">
-        <f>STDEV(Tabelle14[Spalte2])</f>
+        <f>STDEV(Tabelle14[MP1])</f>
         <v>0.27030002823373267</v>
       </c>
       <c r="E13" s="1">
-        <f>STDEV(Tabelle14[Spalte3])</f>
+        <f>STDEV(Tabelle14[MP2])</f>
         <v>0.11573449651772093</v>
       </c>
       <c r="F13" s="1">
-        <f>STDEV(Tabelle14[Spalte4])</f>
+        <f>STDEV(Tabelle14[MP3])</f>
         <v>8.5587751214146704E-2</v>
       </c>
       <c r="G13" s="1">
-        <f>STDEV(Tabelle14[Spalte5])</f>
+        <f>STDEV(Tabelle14[MP4])</f>
         <v>3.592389616661136E-2</v>
       </c>
       <c r="H13" s="1">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="I13" s="1">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="J13" s="1">
-        <f>STDEV(Tabelle14[Spalte8])</f>
+        <f>STDEV(Tabelle14[MP7])</f>
         <v>2.4942038071455556E-2</v>
       </c>
       <c r="K13" s="1">
-        <f>STDEV(Tabelle14[Spalte9])</f>
+        <f>STDEV(Tabelle14[MP8])</f>
         <v>0.1128331324987196</v>
       </c>
       <c r="L13" s="1">
-        <f>STDEV(Tabelle14[Spalte10])</f>
+        <f>STDEV(Tabelle14[MP9])</f>
         <v>7.83699056096306E-2</v>
       </c>
       <c r="M13" s="1">
-        <f>STDEV(Tabelle14[Spalte11])</f>
+        <f>STDEV(Tabelle14[MP10])</f>
         <v>0.21041062610748731</v>
       </c>
     </row>
@@ -60410,43 +60761,43 @@
         <v>46</v>
       </c>
       <c r="D47" s="1">
-        <f>STDEV(Tabelle14[Spalte2])</f>
+        <f>STDEV(Tabelle14[MP1])</f>
         <v>0.27030002823373267</v>
       </c>
       <c r="E47" s="1">
-        <f>STDEV(Tabelle14[Spalte3])</f>
+        <f>STDEV(Tabelle14[MP2])</f>
         <v>0.11573449651772093</v>
       </c>
       <c r="F47" s="1">
-        <f>STDEV(Tabelle14[Spalte4])</f>
+        <f>STDEV(Tabelle14[MP3])</f>
         <v>8.5587751214146704E-2</v>
       </c>
       <c r="G47" s="1">
-        <f>STDEV(Tabelle14[Spalte5])</f>
+        <f>STDEV(Tabelle14[MP4])</f>
         <v>3.592389616661136E-2</v>
       </c>
       <c r="H47" s="1">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="I47" s="1">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="J47" s="1">
-        <f>STDEV(Tabelle14[Spalte8])</f>
+        <f>STDEV(Tabelle14[MP7])</f>
         <v>2.4942038071455556E-2</v>
       </c>
       <c r="K47" s="1">
-        <f>STDEV(Tabelle14[Spalte9])</f>
+        <f>STDEV(Tabelle14[MP8])</f>
         <v>0.1128331324987196</v>
       </c>
       <c r="L47" s="1">
-        <f>STDEV(Tabelle14[Spalte10])</f>
+        <f>STDEV(Tabelle14[MP9])</f>
         <v>7.83699056096306E-2</v>
       </c>
       <c r="M47" s="1">
-        <f>STDEV(Tabelle14[Spalte11])</f>
+        <f>STDEV(Tabelle14[MP10])</f>
         <v>0.21041062610748731</v>
       </c>
     </row>
@@ -60738,43 +61089,43 @@
         <v>46</v>
       </c>
       <c r="D138" s="1">
-        <f>STDEV(Tabelle14[Spalte2])</f>
+        <f>STDEV(Tabelle14[MP1])</f>
         <v>0.27030002823373267</v>
       </c>
       <c r="E138" s="1">
-        <f>STDEV(Tabelle14[Spalte3])</f>
+        <f>STDEV(Tabelle14[MP2])</f>
         <v>0.11573449651772093</v>
       </c>
       <c r="F138" s="1">
-        <f>STDEV(Tabelle14[Spalte4])</f>
+        <f>STDEV(Tabelle14[MP3])</f>
         <v>8.5587751214146704E-2</v>
       </c>
       <c r="G138" s="1">
-        <f>STDEV(Tabelle14[Spalte5])</f>
+        <f>STDEV(Tabelle14[MP4])</f>
         <v>3.592389616661136E-2</v>
       </c>
       <c r="H138" s="1">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="I138" s="1">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="J138" s="1">
-        <f>STDEV(Tabelle14[Spalte8])</f>
+        <f>STDEV(Tabelle14[MP7])</f>
         <v>2.4942038071455556E-2</v>
       </c>
       <c r="K138" s="1">
-        <f>STDEV(Tabelle14[Spalte9])</f>
+        <f>STDEV(Tabelle14[MP8])</f>
         <v>0.1128331324987196</v>
       </c>
       <c r="L138" s="1">
-        <f>STDEV(Tabelle14[Spalte10])</f>
+        <f>STDEV(Tabelle14[MP9])</f>
         <v>7.83699056096306E-2</v>
       </c>
       <c r="M138" s="1">
-        <f>STDEV(Tabelle14[Spalte11])</f>
+        <f>STDEV(Tabelle14[MP10])</f>
         <v>0.21041062610748731</v>
       </c>
     </row>
@@ -60870,39 +61221,39 @@
     </row>
     <row r="162" spans="1:12">
       <c r="C162" t="s">
+        <v>78</v>
+      </c>
+      <c r="D162" t="s">
+        <v>79</v>
+      </c>
+      <c r="E162" t="s">
+        <v>80</v>
+      </c>
+      <c r="F162" t="s">
+        <v>81</v>
+      </c>
+      <c r="G162" t="s">
+        <v>82</v>
+      </c>
+      <c r="H162" t="s">
+        <v>83</v>
+      </c>
+      <c r="I162" t="s">
         <v>84</v>
       </c>
-      <c r="D162" t="s">
+      <c r="J162" t="s">
         <v>85</v>
       </c>
-      <c r="E162" t="s">
+      <c r="K162" t="s">
         <v>86</v>
       </c>
-      <c r="F162" t="s">
+      <c r="L162" t="s">
         <v>87</v>
-      </c>
-      <c r="G162" t="s">
-        <v>88</v>
-      </c>
-      <c r="H162" t="s">
-        <v>89</v>
-      </c>
-      <c r="I162" t="s">
-        <v>90</v>
-      </c>
-      <c r="J162" t="s">
-        <v>91</v>
-      </c>
-      <c r="K162" t="s">
-        <v>92</v>
-      </c>
-      <c r="L162" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B163" t="s">
         <v>54</v>
@@ -61010,7 +61361,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B166" t="s">
         <v>54</v>
@@ -61118,44 +61469,44 @@
     </row>
     <row r="209" spans="5:5">
       <c r="E209" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="258" spans="2:13">
       <c r="D258" t="s">
+        <v>78</v>
+      </c>
+      <c r="E258" t="s">
+        <v>79</v>
+      </c>
+      <c r="F258" t="s">
+        <v>80</v>
+      </c>
+      <c r="G258" t="s">
+        <v>81</v>
+      </c>
+      <c r="H258" t="s">
+        <v>82</v>
+      </c>
+      <c r="I258" t="s">
+        <v>83</v>
+      </c>
+      <c r="J258" t="s">
         <v>84</v>
       </c>
-      <c r="E258" t="s">
+      <c r="K258" t="s">
         <v>85</v>
       </c>
-      <c r="F258" t="s">
+      <c r="L258" t="s">
         <v>86</v>
       </c>
-      <c r="G258" t="s">
+      <c r="M258" t="s">
         <v>87</v>
-      </c>
-      <c r="H258" t="s">
-        <v>88</v>
-      </c>
-      <c r="I258" t="s">
-        <v>89</v>
-      </c>
-      <c r="J258" t="s">
-        <v>90</v>
-      </c>
-      <c r="K258" t="s">
-        <v>91</v>
-      </c>
-      <c r="L258" t="s">
-        <v>92</v>
-      </c>
-      <c r="M258" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="259" spans="2:13">
       <c r="B259" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C259" t="s">
         <v>54</v>
@@ -61263,7 +61614,7 @@
     </row>
     <row r="262" spans="2:13">
       <c r="B262" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C262" t="s">
         <v>54</v>
@@ -61386,7 +61737,7 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:N27"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -61408,7 +61759,7 @@
         <v>71</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -61423,37 +61774,37 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -62374,7 +62725,7 @@
     </row>
     <row r="32" spans="4:14" ht="15.75">
       <c r="D32" s="43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E32">
         <v>2.524</v>
@@ -62409,7 +62760,7 @@
     </row>
     <row r="33" spans="4:14" ht="15.75">
       <c r="D33" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:N33" si="2">ABS(ABS(MIN(E7:E26)-ABS(MAX(E7:E26))))</f>
@@ -62454,7 +62805,7 @@
     </row>
     <row r="34" spans="4:14">
       <c r="D34" s="36" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E34">
         <f>MAX(E33:N33)</f>
@@ -62553,43 +62904,43 @@
         <v>46</v>
       </c>
       <c r="E47">
-        <f>STDEV(Tabelle14[Spalte2])</f>
+        <f>STDEV(Tabelle14[MP1])</f>
         <v>0.27030002823373267</v>
       </c>
       <c r="F47">
-        <f>STDEV(Tabelle14[Spalte3])</f>
+        <f>STDEV(Tabelle14[MP2])</f>
         <v>0.11573449651772093</v>
       </c>
       <c r="G47">
-        <f>STDEV(Tabelle14[Spalte4])</f>
+        <f>STDEV(Tabelle14[MP3])</f>
         <v>8.5587751214146704E-2</v>
       </c>
       <c r="H47">
-        <f>STDEV(Tabelle14[Spalte5])</f>
+        <f>STDEV(Tabelle14[MP4])</f>
         <v>3.592389616661136E-2</v>
       </c>
       <c r="I47">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="J47">
-        <f>STDEV(Tabelle14[Spalte7])</f>
+        <f>STDEV(Tabelle14[MP6])</f>
         <v>2.8022547312739773E-2</v>
       </c>
       <c r="K47">
-        <f>STDEV(Tabelle14[Spalte8])</f>
+        <f>STDEV(Tabelle14[MP7])</f>
         <v>2.4942038071455556E-2</v>
       </c>
       <c r="L47">
-        <f>STDEV(Tabelle14[Spalte9])</f>
+        <f>STDEV(Tabelle14[MP8])</f>
         <v>0.1128331324987196</v>
       </c>
       <c r="M47">
-        <f>STDEV(Tabelle14[Spalte10])</f>
+        <f>STDEV(Tabelle14[MP9])</f>
         <v>7.83699056096306E-2</v>
       </c>
       <c r="N47">
-        <f>STDEV(Tabelle14[Spalte11])</f>
+        <f>STDEV(Tabelle14[MP10])</f>
         <v>0.21041062610748731</v>
       </c>
     </row>
@@ -62692,6 +63043,9 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -63518,7 +63872,7 @@
     </row>
     <row r="30" spans="3:11" ht="15.75">
       <c r="C30" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <f t="shared" ref="D30:K30" si="2">ABS(ABS(MIN(D5:D24)-ABS(MAX(D5:D24))))</f>
@@ -63555,7 +63909,7 @@
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D31">
         <f>MAX(D30:K30)</f>
